--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/kanyakornploy_kitisopakul_fisglobal_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{D8A66DF8-847F-43BE-B7F6-27E929DC71EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6909FDE-9B07-4F60-8079-E7D307C10883}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1169133A-B176-4CCB-AF9B-4B5EDCFB2983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ของ!$A$1:$K$568</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="696">
   <si>
     <t>location</t>
   </si>
@@ -2117,10 +2118,16 @@
     <t>ตัด 29/4</t>
   </si>
   <si>
-    <t>พริกแกงญ 40</t>
-  </si>
-  <si>
-    <t>กล้วยทอด 25</t>
+    <t>ปลาทอด 40</t>
+  </si>
+  <si>
+    <t>พริกแกงญ 40 เพิ่ม 20บ มล</t>
+  </si>
+  <si>
+    <t>เปลียนราคากล้วยทอด 25</t>
+  </si>
+  <si>
+    <t>แปรงสีฟัน</t>
   </si>
 </sst>
 </file>
@@ -2143,37 +2150,44 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2248,11 +2262,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2473,8 +2487,8 @@
   </sheetPr>
   <dimension ref="A1:N995"/>
   <sheetViews>
-    <sheetView topLeftCell="A549" workbookViewId="0">
-      <selection activeCell="A581" sqref="A581"/>
+    <sheetView topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="K578" sqref="A578:K578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24577,15 +24591,15 @@
         <v>1</v>
       </c>
       <c r="G575" s="3">
-        <f t="shared" ref="G575" si="9">E575/F575</f>
+        <f>E575/F575</f>
         <v>60</v>
       </c>
       <c r="H575" s="3">
-        <f t="shared" ref="H575" si="10">G575*1.15</f>
+        <f>G575*1.15</f>
         <v>69</v>
       </c>
       <c r="I575" s="3">
-        <f t="shared" ref="I575" si="11">D575-G575</f>
+        <f>D575-G575</f>
         <v>5</v>
       </c>
       <c r="J575">
@@ -24615,15 +24629,15 @@
         <v>1</v>
       </c>
       <c r="G576" s="3">
-        <f t="shared" ref="G576:G577" si="12">E576/F576</f>
+        <f>E576/F576</f>
         <v>40</v>
       </c>
       <c r="H576" s="3">
-        <f t="shared" ref="H576:H577" si="13">G576*1.15</f>
+        <f>G576*1.15</f>
         <v>46</v>
       </c>
       <c r="I576" s="3">
-        <f t="shared" ref="I576:I577" si="14">D576-G576</f>
+        <f>D576-G576</f>
         <v>5</v>
       </c>
       <c r="J576">
@@ -24653,26 +24667,61 @@
         <v>6</v>
       </c>
       <c r="G577" s="3">
-        <f t="shared" si="12"/>
+        <f>E577/F577</f>
         <v>8.25</v>
       </c>
       <c r="H577" s="3">
-        <f t="shared" si="13"/>
+        <f>G577*1.15</f>
         <v>9.4874999999999989</v>
       </c>
       <c r="I577" s="3">
-        <f t="shared" si="14"/>
+        <f>D577-G577</f>
         <v>1.75</v>
       </c>
       <c r="J577" s="4">
         <v>0</v>
       </c>
-      <c r="K577" s="27" t="s">
+      <c r="K577" s="25" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K578" s="11"/>
+    <row r="578" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A578" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B578" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C578" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D578" s="3">
+        <v>40</v>
+      </c>
+      <c r="E578" s="3">
+        <v>35</v>
+      </c>
+      <c r="F578" s="3">
+        <v>1</v>
+      </c>
+      <c r="G578" s="3">
+        <f>E578/F578</f>
+        <v>35</v>
+      </c>
+      <c r="H578" s="3">
+        <f>G578*1.15</f>
+        <v>40.25</v>
+      </c>
+      <c r="I578" s="3">
+        <f>D578-G578</f>
+        <v>5</v>
+      </c>
+      <c r="J578" s="4">
+        <v>0</v>
+      </c>
+      <c r="K578" s="7" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="579" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K579" s="11"/>
@@ -26085,10 +26134,10 @@
       <c r="E15" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
@@ -26282,20 +26331,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:C29"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>644</v>
       </c>
@@ -26303,7 +26352,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>646</v>
       </c>
@@ -26311,12 +26360,12 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>649</v>
       </c>
@@ -26324,7 +26373,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>644</v>
       </c>
@@ -26332,7 +26381,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>644</v>
       </c>
@@ -26340,7 +26389,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>633</v>
       </c>
@@ -26351,7 +26400,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>644</v>
       </c>
@@ -26359,7 +26408,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>644</v>
       </c>
@@ -26370,7 +26419,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>633</v>
       </c>
@@ -26381,7 +26430,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>633</v>
       </c>
@@ -26392,7 +26441,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>633</v>
       </c>
@@ -26400,7 +26449,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>633</v>
       </c>
@@ -26408,7 +26457,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>633</v>
       </c>
@@ -26416,42 +26465,42 @@
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>633</v>
       </c>
@@ -26459,7 +26508,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>633</v>
       </c>
@@ -26474,12 +26523,17 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0885FF-19C4-4F13-9A44-CB59896C5F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1746AEA-5207-4EAB-86C7-5D051A12F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="702">
   <si>
     <t>location</t>
   </si>
@@ -2142,6 +2142,9 @@
   </si>
   <si>
     <t>แพท ตัดครั้งหน้า</t>
+  </si>
+  <si>
+    <t>ข้าวโพดต้ม ญ</t>
   </si>
 </sst>
 </file>
@@ -2514,8 +2517,8 @@
   </sheetPr>
   <dimension ref="A1:N989"/>
   <sheetViews>
-    <sheetView topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="A578" sqref="A578:K578"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="F580" sqref="F580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24734,15 +24737,15 @@
         <v>1</v>
       </c>
       <c r="G578" s="3">
-        <f t="shared" ref="G578" si="27">E578/F578</f>
+        <f t="shared" ref="G578:G580" si="27">E578/F578</f>
         <v>4</v>
       </c>
       <c r="H578" s="3">
-        <f t="shared" ref="H578" si="28">G578*1.15</f>
+        <f t="shared" ref="H578:H580" si="28">G578*1.15</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="I578" s="3">
-        <f t="shared" ref="I578" si="29">D578-G578</f>
+        <f t="shared" ref="I578:I580" si="29">D578-G578</f>
         <v>1</v>
       </c>
       <c r="J578" s="4">
@@ -24752,11 +24755,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K579" s="10"/>
-    </row>
-    <row r="580" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K580" s="10"/>
+    <row r="579" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D579" s="3">
+        <v>28</v>
+      </c>
+      <c r="E579" s="3">
+        <v>25</v>
+      </c>
+      <c r="F579" s="3">
+        <v>1</v>
+      </c>
+      <c r="G579" s="3">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="H579" s="3">
+        <f t="shared" si="28"/>
+        <v>28.749999999999996</v>
+      </c>
+      <c r="I579" s="3">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="J579" s="4">
+        <v>0</v>
+      </c>
+      <c r="K579" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A580" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B580" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C580" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="D580" s="3">
+        <v>38</v>
+      </c>
+      <c r="E580" s="3">
+        <v>33</v>
+      </c>
+      <c r="F580" s="3">
+        <v>1</v>
+      </c>
+      <c r="G580" s="3">
+        <f t="shared" si="27"/>
+        <v>33</v>
+      </c>
+      <c r="H580" s="3">
+        <f t="shared" si="28"/>
+        <v>37.949999999999996</v>
+      </c>
+      <c r="I580" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="J580" s="4">
+        <v>0</v>
+      </c>
+      <c r="K580" s="10" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="581" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K581" s="10"/>
@@ -26365,8 +26438,8 @@
   </sheetPr>
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E02249-A4EA-425E-9E7B-15BE0CC25201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D75A9C-D84D-47BC-8DB0-97D202D700D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="741">
   <si>
     <t>location</t>
   </si>
@@ -2250,6 +2250,18 @@
   </si>
   <si>
     <t>กบทอด</t>
+  </si>
+  <si>
+    <t>กุยช่าย</t>
+  </si>
+  <si>
+    <t>ขนมปัง Jacob</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>หลอดไฟ 10w 2700k</t>
   </si>
 </sst>
 </file>
@@ -2622,8 +2634,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E610" sqref="E610"/>
+    <sheetView tabSelected="1" topLeftCell="B319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J330" sqref="J330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25340,11 +25352,11 @@
         <v>24</v>
       </c>
       <c r="G590" s="3">
-        <f t="shared" ref="G590:G653" si="30">E590/F590</f>
+        <f t="shared" ref="G590:G602" si="30">E590/F590</f>
         <v>3.5416666666666665</v>
       </c>
       <c r="H590" s="3">
-        <f t="shared" ref="H590:H653" si="31">G590*1.15</f>
+        <f t="shared" ref="H590:H609" si="31">G590*1.15</f>
         <v>4.0729166666666661</v>
       </c>
       <c r="I590" s="3">
@@ -26070,14 +26082,114 @@
       </c>
       <c r="K609" s="10"/>
     </row>
-    <row r="610" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D610" s="3">
+        <v>35</v>
+      </c>
+      <c r="E610" s="3">
+        <v>30</v>
+      </c>
+      <c r="F610" s="3">
+        <v>1</v>
+      </c>
+      <c r="G610" s="3">
+        <f t="shared" ref="G610:G612" si="42">E610/F610</f>
+        <v>30</v>
+      </c>
+      <c r="H610" s="3">
+        <f t="shared" ref="H610:H612" si="43">G610*1.15</f>
+        <v>34.5</v>
+      </c>
+      <c r="I610" s="3">
+        <f t="shared" ref="I610:I612" si="44">D610-G610</f>
+        <v>5</v>
+      </c>
+      <c r="J610" s="4">
+        <v>-1</v>
+      </c>
       <c r="K610" s="10"/>
     </row>
-    <row r="611" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K611" s="10"/>
-    </row>
-    <row r="612" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K612" s="10"/>
+    <row r="611" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C611" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D611" s="13">
+        <v>15</v>
+      </c>
+      <c r="E611" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="F611" s="13">
+        <v>1</v>
+      </c>
+      <c r="G611" s="3">
+        <f t="shared" si="42"/>
+        <v>12.5</v>
+      </c>
+      <c r="H611" s="3">
+        <f t="shared" si="43"/>
+        <v>14.374999999999998</v>
+      </c>
+      <c r="I611" s="3">
+        <f t="shared" si="44"/>
+        <v>2.5</v>
+      </c>
+      <c r="J611" s="13">
+        <v>0</v>
+      </c>
+      <c r="K611" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B612" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D612" s="3">
+        <v>125</v>
+      </c>
+      <c r="E612" s="3">
+        <v>110</v>
+      </c>
+      <c r="F612" s="3">
+        <v>1</v>
+      </c>
+      <c r="G612" s="3">
+        <f t="shared" si="42"/>
+        <v>110</v>
+      </c>
+      <c r="H612" s="3">
+        <f t="shared" si="43"/>
+        <v>126.49999999999999</v>
+      </c>
+      <c r="I612" s="3">
+        <f t="shared" si="44"/>
+        <v>15</v>
+      </c>
+      <c r="J612" s="4">
+        <v>0</v>
+      </c>
+      <c r="K612" s="10" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="613" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K613" s="10"/>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D75A9C-D84D-47BC-8DB0-97D202D700D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E9F6E1-D7AB-4A2D-9813-F4F522667822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="750">
   <si>
     <t>location</t>
   </si>
@@ -2262,6 +2262,33 @@
   </si>
   <si>
     <t>หลอดไฟ 10w 2700k</t>
+  </si>
+  <si>
+    <t>ไม่รู้</t>
+  </si>
+  <si>
+    <t>มะขาม เต้ย จ่ายพี่จอย</t>
+  </si>
+  <si>
+    <t>ตัด 13/4</t>
+  </si>
+  <si>
+    <t>ใครไม่รู้5/5</t>
+  </si>
+  <si>
+    <t>ใครไม่รู้10/5</t>
+  </si>
+  <si>
+    <t>ในถง แตน 10/5</t>
+  </si>
+  <si>
+    <t>ใครไม่รู้ 9/5</t>
+  </si>
+  <si>
+    <t>เดา หริ่ง</t>
+  </si>
+  <si>
+    <t>เดา กิฟ</t>
   </si>
 </sst>
 </file>
@@ -2634,8 +2661,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J330" sqref="J330"/>
+    <sheetView topLeftCell="A569" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D598" sqref="D598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26102,15 +26129,15 @@
         <v>1</v>
       </c>
       <c r="G610" s="3">
-        <f t="shared" ref="G610:G612" si="42">E610/F610</f>
+        <f t="shared" ref="G610:G613" si="42">E610/F610</f>
         <v>30</v>
       </c>
       <c r="H610" s="3">
-        <f t="shared" ref="H610:H612" si="43">G610*1.15</f>
+        <f t="shared" ref="H610:H613" si="43">G610*1.15</f>
         <v>34.5</v>
       </c>
       <c r="I610" s="3">
-        <f t="shared" ref="I610:I612" si="44">D610-G610</f>
+        <f t="shared" ref="I610:I613" si="44">D610-G610</f>
         <v>5</v>
       </c>
       <c r="J610" s="4">
@@ -26157,6 +26184,9 @@
       </c>
     </row>
     <row r="612" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A612" s="26" t="s">
+        <v>741</v>
+      </c>
       <c r="B612" s="1" t="s">
         <v>194</v>
       </c>
@@ -26191,8 +26221,18 @@
         <v>739</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K613" s="10"/>
+    <row r="613" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+      <c r="I613" s="3"/>
+      <c r="J613" s="4"/>
+      <c r="K613" s="2"/>
     </row>
     <row r="614" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K614" s="10"/>
@@ -27715,10 +27755,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27921,24 +27961,60 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
         <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="C40" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="C41" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E9F6E1-D7AB-4A2D-9813-F4F522667822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22056FF2-51D1-4BB9-B6DE-28D90A048640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="751">
   <si>
     <t>location</t>
   </si>
@@ -2289,6 +2289,9 @@
   </si>
   <si>
     <t>เดา กิฟ</t>
+  </si>
+  <si>
+    <t>สัปปะรด</t>
   </si>
 </sst>
 </file>
@@ -2661,8 +2664,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView topLeftCell="A569" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D598" sqref="D598"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C614" sqref="C614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26129,15 +26132,15 @@
         <v>1</v>
       </c>
       <c r="G610" s="3">
-        <f t="shared" ref="G610:G613" si="42">E610/F610</f>
+        <f t="shared" ref="G610:G612" si="42">E610/F610</f>
         <v>30</v>
       </c>
       <c r="H610" s="3">
-        <f t="shared" ref="H610:H613" si="43">G610*1.15</f>
+        <f t="shared" ref="H610:H612" si="43">G610*1.15</f>
         <v>34.5</v>
       </c>
       <c r="I610" s="3">
-        <f t="shared" ref="I610:I613" si="44">D610-G610</f>
+        <f t="shared" ref="I610:I612" si="44">D610-G610</f>
         <v>5</v>
       </c>
       <c r="J610" s="4">
@@ -26222,17 +26225,42 @@
       </c>
     </row>
     <row r="613" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A613" s="1"/>
-      <c r="B613" s="1"/>
-      <c r="C613" s="1"/>
-      <c r="D613" s="3"/>
-      <c r="E613" s="3"/>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="3"/>
-      <c r="I613" s="3"/>
-      <c r="J613" s="4"/>
-      <c r="K613" s="2"/>
+      <c r="A613" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C613" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="D613" s="13">
+        <v>15</v>
+      </c>
+      <c r="E613" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="F613" s="13">
+        <v>1</v>
+      </c>
+      <c r="G613" s="3">
+        <f t="shared" ref="G613" si="45">E613/F613</f>
+        <v>12.5</v>
+      </c>
+      <c r="H613" s="3">
+        <f t="shared" ref="H613" si="46">G613*1.15</f>
+        <v>14.374999999999998</v>
+      </c>
+      <c r="I613" s="3">
+        <f t="shared" ref="I613" si="47">D613-G613</f>
+        <v>2.5</v>
+      </c>
+      <c r="J613" s="13">
+        <v>0</v>
+      </c>
+      <c r="K613" s="10" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="614" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K614" s="10"/>
@@ -27757,7 +27785,7 @@
   </sheetPr>
   <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22056FF2-51D1-4BB9-B6DE-28D90A048640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2005-3489-429E-BD66-54AAFB8FEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="763">
   <si>
     <t>location</t>
   </si>
@@ -2292,6 +2292,42 @@
   </si>
   <si>
     <t>สัปปะรด</t>
+  </si>
+  <si>
+    <t>บิสชิน รสกาแฟ * 12</t>
+  </si>
+  <si>
+    <t>โยเกิร์ต</t>
+  </si>
+  <si>
+    <t>มะม่วงสุก</t>
+  </si>
+  <si>
+    <t>ซันสแนค รสบาร์บีคิว 28g * 6</t>
+  </si>
+  <si>
+    <t>โอโม่ 20บ 210g * 6</t>
+  </si>
+  <si>
+    <t>ตัด 20/5</t>
+  </si>
+  <si>
+    <t>อู๊ด</t>
+  </si>
+  <si>
+    <t>มะม่วงสุก 15</t>
+  </si>
+  <si>
+    <t>ขนุน 25</t>
+  </si>
+  <si>
+    <t>เซเว่น อัพ 345ml * 12</t>
+  </si>
+  <si>
+    <t>โอวัลติน 180ml * 48</t>
+  </si>
+  <si>
+    <t>นม denmark 200ml * 36</t>
   </si>
 </sst>
 </file>
@@ -2664,8 +2700,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C614" sqref="C614"/>
+    <sheetView tabSelected="1" topLeftCell="A590" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M623" sqref="M623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26244,15 +26280,15 @@
         <v>1</v>
       </c>
       <c r="G613" s="3">
-        <f t="shared" ref="G613" si="45">E613/F613</f>
+        <f t="shared" ref="G613:G615" si="45">E613/F613</f>
         <v>12.5</v>
       </c>
       <c r="H613" s="3">
-        <f t="shared" ref="H613" si="46">G613*1.15</f>
+        <f t="shared" ref="H613:H615" si="46">G613*1.15</f>
         <v>14.374999999999998</v>
       </c>
       <c r="I613" s="3">
-        <f t="shared" ref="I613" si="47">D613-G613</f>
+        <f t="shared" ref="I613:I615" si="47">D613-G613</f>
         <v>2.5</v>
       </c>
       <c r="J613" s="13">
@@ -26262,38 +26298,413 @@
         <v>739</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D614" s="3">
+        <v>6</v>
+      </c>
+      <c r="E614" s="3">
+        <v>59.5</v>
+      </c>
+      <c r="F614" s="3">
+        <v>12</v>
+      </c>
+      <c r="G614" s="3">
+        <f t="shared" si="45"/>
+        <v>4.958333333333333</v>
+      </c>
+      <c r="H614" s="3">
+        <f t="shared" si="46"/>
+        <v>5.7020833333333325</v>
+      </c>
+      <c r="I614" s="3">
+        <f t="shared" si="47"/>
+        <v>1.041666666666667</v>
+      </c>
+      <c r="J614" s="4">
+        <v>-6</v>
+      </c>
       <c r="K614" s="10"/>
     </row>
-    <row r="615" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K615" s="10"/>
-    </row>
-    <row r="616" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K616" s="10"/>
-    </row>
-    <row r="617" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K617" s="10"/>
-    </row>
-    <row r="618" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K618" s="10"/>
-    </row>
-    <row r="619" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D615" s="3">
+        <v>17</v>
+      </c>
+      <c r="E615" s="3">
+        <v>58</v>
+      </c>
+      <c r="F615" s="3">
+        <v>4</v>
+      </c>
+      <c r="G615" s="3">
+        <f t="shared" si="45"/>
+        <v>14.5</v>
+      </c>
+      <c r="H615" s="3">
+        <f t="shared" si="46"/>
+        <v>16.674999999999997</v>
+      </c>
+      <c r="I615" s="3">
+        <f t="shared" si="47"/>
+        <v>2.5</v>
+      </c>
+      <c r="J615" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K615" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D616" s="3">
+        <v>20</v>
+      </c>
+      <c r="E616" s="3">
+        <v>81</v>
+      </c>
+      <c r="F616" s="3">
+        <v>6</v>
+      </c>
+      <c r="G616" s="3">
+        <f t="shared" ref="G616:G618" si="48">E616/F616</f>
+        <v>13.5</v>
+      </c>
+      <c r="H616" s="3">
+        <f t="shared" ref="H616:H618" si="49">G616*1.15</f>
+        <v>15.524999999999999</v>
+      </c>
+      <c r="I616" s="3">
+        <f t="shared" ref="I616:I618" si="50">D616-G616</f>
+        <v>6.5</v>
+      </c>
+      <c r="J616" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K616" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D617" s="3">
+        <v>15</v>
+      </c>
+      <c r="E617" s="3">
+        <v>12</v>
+      </c>
+      <c r="F617" s="3">
+        <v>1</v>
+      </c>
+      <c r="G617" s="3">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="H617" s="3">
+        <f t="shared" si="49"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="I617" s="3">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="J617" s="4">
+        <v>0</v>
+      </c>
+      <c r="K617" s="7"/>
+    </row>
+    <row r="618" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C618" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D618" s="3">
+        <v>10</v>
+      </c>
+      <c r="E618" s="3">
+        <v>48</v>
+      </c>
+      <c r="F618" s="3">
+        <v>6</v>
+      </c>
+      <c r="G618" s="3">
+        <f t="shared" si="48"/>
+        <v>8</v>
+      </c>
+      <c r="H618" s="3">
+        <f t="shared" si="49"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I618" s="3">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="J618" s="4">
+        <v>0</v>
+      </c>
+      <c r="K618" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D619" s="3">
+        <v>10</v>
+      </c>
+      <c r="E619" s="3">
+        <v>8</v>
+      </c>
+      <c r="F619" s="3">
+        <v>1</v>
+      </c>
+      <c r="G619" s="3">
+        <f t="shared" ref="G619" si="51">E619/F619</f>
+        <v>8</v>
+      </c>
+      <c r="H619" s="3">
+        <f t="shared" ref="H619" si="52">G619*1.15</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I619" s="3">
+        <f t="shared" ref="I619" si="53">D619-G619</f>
+        <v>2</v>
+      </c>
+      <c r="J619" s="4">
+        <v>0</v>
+      </c>
       <c r="K619" s="10"/>
     </row>
-    <row r="620" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D620" s="3">
+        <v>15</v>
+      </c>
+      <c r="E620" s="3">
+        <v>12</v>
+      </c>
+      <c r="F620" s="3">
+        <v>1</v>
+      </c>
+      <c r="G620" s="3">
+        <f t="shared" ref="G620" si="54">E620/F620</f>
+        <v>12</v>
+      </c>
+      <c r="H620" s="3">
+        <f t="shared" ref="H620" si="55">G620*1.15</f>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="I620" s="3">
+        <f t="shared" ref="I620" si="56">D620-G620</f>
+        <v>3</v>
+      </c>
+      <c r="J620" s="4">
+        <v>0</v>
+      </c>
       <c r="K620" s="10"/>
     </row>
-    <row r="621" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D621" s="3">
+        <v>25</v>
+      </c>
+      <c r="E621" s="3">
+        <v>20</v>
+      </c>
+      <c r="F621" s="3">
+        <v>1</v>
+      </c>
+      <c r="G621" s="3">
+        <f t="shared" ref="G621:G622" si="57">E621/F621</f>
+        <v>20</v>
+      </c>
+      <c r="H621" s="3">
+        <f t="shared" ref="H621:H622" si="58">G621*1.15</f>
+        <v>23</v>
+      </c>
+      <c r="I621" s="3">
+        <f t="shared" ref="I621:I622" si="59">D621-G621</f>
+        <v>5</v>
+      </c>
+      <c r="J621" s="4">
+        <v>0</v>
+      </c>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K622" s="10"/>
-    </row>
-    <row r="623" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K623" s="10"/>
-    </row>
-    <row r="624" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K624" s="10"/>
+    <row r="622" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D622" s="3">
+        <v>13</v>
+      </c>
+      <c r="E622" s="3">
+        <v>107</v>
+      </c>
+      <c r="F622" s="3">
+        <v>12</v>
+      </c>
+      <c r="G622" s="3">
+        <f t="shared" si="57"/>
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="H622" s="3">
+        <f t="shared" si="58"/>
+        <v>10.254166666666665</v>
+      </c>
+      <c r="I622" s="3">
+        <f t="shared" si="59"/>
+        <v>4.0833333333333339</v>
+      </c>
+      <c r="J622" s="4">
+        <v>0</v>
+      </c>
+      <c r="K622" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D623" s="3">
+        <v>11</v>
+      </c>
+      <c r="E623" s="3">
+        <v>475</v>
+      </c>
+      <c r="F623" s="3">
+        <v>48</v>
+      </c>
+      <c r="G623" s="3">
+        <f t="shared" ref="G623" si="60">E623/F623</f>
+        <v>9.8958333333333339</v>
+      </c>
+      <c r="H623" s="3">
+        <f t="shared" ref="H623" si="61">G623*1.15</f>
+        <v>11.380208333333334</v>
+      </c>
+      <c r="I623" s="3">
+        <f t="shared" ref="I623" si="62">D623-G623</f>
+        <v>1.1041666666666661</v>
+      </c>
+      <c r="J623" s="4">
+        <v>0</v>
+      </c>
+      <c r="K623" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D624" s="3">
+        <v>12</v>
+      </c>
+      <c r="E624" s="3">
+        <v>359</v>
+      </c>
+      <c r="F624" s="3">
+        <v>36</v>
+      </c>
+      <c r="G624" s="3">
+        <f t="shared" ref="G624" si="63">E624/F624</f>
+        <v>9.9722222222222214</v>
+      </c>
+      <c r="H624" s="3">
+        <f t="shared" ref="H624" si="64">G624*1.15</f>
+        <v>11.468055555555553</v>
+      </c>
+      <c r="I624" s="3">
+        <f t="shared" ref="I624" si="65">D624-G624</f>
+        <v>2.0277777777777786</v>
+      </c>
+      <c r="J624" s="4">
+        <v>0</v>
+      </c>
+      <c r="K624" s="10" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="625" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K625" s="10"/>
@@ -27400,10 +27811,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27768,6 +28179,35 @@
       </c>
       <c r="B38">
         <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF2005-3489-429E-BD66-54AAFB8FEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC161A-565E-4FA0-9D26-E9AE63BF991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="791">
   <si>
     <t>location</t>
   </si>
@@ -2328,6 +2328,90 @@
   </si>
   <si>
     <t>นม denmark 200ml * 36</t>
+  </si>
+  <si>
+    <t>ทาโร่ 13.6g * 6</t>
+  </si>
+  <si>
+    <t>ปลานิลทอด ญ</t>
+  </si>
+  <si>
+    <t>นอติลุส ทูน่าสเต็กในน้ำแร่ 165g * 4</t>
+  </si>
+  <si>
+    <t>ยำยำ รสต้มยำทะเลหม้อไฟ ฟ้า * 30</t>
+  </si>
+  <si>
+    <t>นอติลุส tuna spread with crackers</t>
+  </si>
+  <si>
+    <t>โรซ่าพร้อมกับข้าว แกงกะหรีไก่ 105g</t>
+  </si>
+  <si>
+    <t>โรซ่าพร้อมกับข้าว ปลาทูน่าพริกใบกะเพรา 105g</t>
+  </si>
+  <si>
+    <t>น้ำยาล้างจาน Dish super</t>
+  </si>
+  <si>
+    <t>ปลานิลทอด 45</t>
+  </si>
+  <si>
+    <t>พลาสเตอร์</t>
+  </si>
+  <si>
+    <t>26-5</t>
+  </si>
+  <si>
+    <t>ตัด 27/4</t>
+  </si>
+  <si>
+    <t>ขาด14อย่าง 26/4</t>
+  </si>
+  <si>
+    <t>เดา อู๊ด</t>
+  </si>
+  <si>
+    <t>ขาด5อย่าง ครัวซอง 26/4</t>
+  </si>
+  <si>
+    <t>ขาด4อย่าง น้ำปลา 21/4</t>
+  </si>
+  <si>
+    <t>ขาด5อย่าง สุราบรีส2 20/4</t>
+  </si>
+  <si>
+    <t>ขาด4อย่าง มะม่วงเปรี้ยว20/4</t>
+  </si>
+  <si>
+    <t>ขาด4อย่าง ไฟแช็คขนมแท่ง19/5</t>
+  </si>
+  <si>
+    <t>ขาด3อย่าง แลคน้ำแข็ง19/5</t>
+  </si>
+  <si>
+    <t>ขาด3อย่าง โอวัลติลน้ำมัน19/5</t>
+  </si>
+  <si>
+    <t>มันทอด ในถุง</t>
+  </si>
+  <si>
+    <t>ข้าวมันไก่ กล่องพลาสติก</t>
+  </si>
+  <si>
+    <t>มะขาม</t>
+  </si>
+  <si>
+    <t>เนื้อปลาแพนกาเซียสดอร์รี่แล่ติดเนื้อท้องแช่แข็ง aro</t>
+  </si>
+  <si>
+    <t>ชิลด์ท้อกซ์ แดง กำจัดยุง 300ml * 3</t>
+  </si>
+  <si>
+    <t>เหมือนกับไม ยกยอด</t>
+  </si>
+  <si>
+    <t>พี่จอยบอกหักไปแล้ว</t>
   </si>
 </sst>
 </file>
@@ -2700,8 +2784,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M623" sqref="M623"/>
+    <sheetView topLeftCell="A286" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301:J301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15838,35 +15922,33 @@
         <v>12</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>201</v>
+        <v>763</v>
       </c>
       <c r="D337" s="3">
         <v>10</v>
       </c>
       <c r="E337" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F337" s="3">
         <v>6</v>
       </c>
       <c r="G337" s="3">
         <f t="shared" si="15"/>
-        <v>7.833333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="H337" s="3">
         <f t="shared" si="16"/>
-        <v>9.0083333333333329</v>
+        <v>9.7749999999999986</v>
       </c>
       <c r="I337" s="3">
         <f t="shared" si="17"/>
-        <v>2.166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="J337" s="4">
-        <v>6</v>
-      </c>
-      <c r="K337" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K337" s="2"/>
       <c r="M337" s="6"/>
       <c r="N337" s="4"/>
     </row>
@@ -22658,27 +22740,29 @@
         <v>7</v>
       </c>
       <c r="E516" s="3">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F516" s="3">
         <v>30</v>
       </c>
       <c r="G516" s="3">
         <f t="shared" si="24"/>
-        <v>5.6</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="H516" s="3">
         <f t="shared" si="25"/>
-        <v>6.4399999999999995</v>
+        <v>6.7466666666666653</v>
       </c>
       <c r="I516" s="3">
         <f t="shared" si="26"/>
-        <v>1.4000000000000004</v>
+        <v>1.1333333333333337</v>
       </c>
       <c r="J516" s="4">
-        <v>16</v>
-      </c>
-      <c r="K516" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="K516" s="5" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="517" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
@@ -26688,15 +26772,15 @@
         <v>36</v>
       </c>
       <c r="G624" s="3">
-        <f t="shared" ref="G624" si="63">E624/F624</f>
+        <f t="shared" ref="G624:G627" si="63">E624/F624</f>
         <v>9.9722222222222214</v>
       </c>
       <c r="H624" s="3">
-        <f t="shared" ref="H624" si="64">G624*1.15</f>
+        <f t="shared" ref="H624:H627" si="64">G624*1.15</f>
         <v>11.468055555555553</v>
       </c>
       <c r="I624" s="3">
-        <f t="shared" ref="I624" si="65">D624-G624</f>
+        <f t="shared" ref="I624:I627" si="65">D624-G624</f>
         <v>2.0277777777777786</v>
       </c>
       <c r="J624" s="4">
@@ -26706,52 +26790,536 @@
         <v>739</v>
       </c>
     </row>
-    <row r="625" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K625" s="10"/>
-    </row>
-    <row r="626" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K626" s="10"/>
-    </row>
-    <row r="627" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K627" s="10"/>
-    </row>
-    <row r="628" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K628" s="10"/>
-    </row>
-    <row r="629" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K629" s="10"/>
-    </row>
-    <row r="630" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K630" s="10"/>
-    </row>
-    <row r="631" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D625" s="3">
+        <v>60</v>
+      </c>
+      <c r="E625" s="3">
+        <v>55</v>
+      </c>
+      <c r="F625" s="3">
+        <v>1</v>
+      </c>
+      <c r="G625" s="3">
+        <f t="shared" si="63"/>
+        <v>55</v>
+      </c>
+      <c r="H625" s="3">
+        <f t="shared" si="64"/>
+        <v>63.249999999999993</v>
+      </c>
+      <c r="I625" s="3">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="J625" s="4">
+        <v>0</v>
+      </c>
+      <c r="K625" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D626" s="3">
+        <v>40</v>
+      </c>
+      <c r="E626" s="3">
+        <v>136</v>
+      </c>
+      <c r="F626" s="3">
+        <v>4</v>
+      </c>
+      <c r="G626" s="3">
+        <f t="shared" si="63"/>
+        <v>34</v>
+      </c>
+      <c r="H626" s="3">
+        <f t="shared" si="64"/>
+        <v>39.099999999999994</v>
+      </c>
+      <c r="I626" s="3">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="J626" s="4">
+        <v>0</v>
+      </c>
+      <c r="K626" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D627" s="3">
+        <v>7</v>
+      </c>
+      <c r="E627" s="3">
+        <v>176</v>
+      </c>
+      <c r="F627" s="3">
+        <v>30</v>
+      </c>
+      <c r="G627" s="3">
+        <f t="shared" si="63"/>
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="H627" s="3">
+        <f t="shared" si="64"/>
+        <v>6.7466666666666653</v>
+      </c>
+      <c r="I627" s="3">
+        <f t="shared" si="65"/>
+        <v>1.1333333333333337</v>
+      </c>
+      <c r="J627" s="4">
+        <v>0</v>
+      </c>
+      <c r="K627" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D628" s="3">
+        <v>40</v>
+      </c>
+      <c r="E628" s="3">
+        <v>35</v>
+      </c>
+      <c r="F628" s="3">
+        <v>1</v>
+      </c>
+      <c r="G628" s="3">
+        <f t="shared" ref="G628:G629" si="66">E628/F628</f>
+        <v>35</v>
+      </c>
+      <c r="H628" s="3">
+        <f t="shared" ref="H628:H629" si="67">G628*1.15</f>
+        <v>40.25</v>
+      </c>
+      <c r="I628" s="3">
+        <f t="shared" ref="I628:I629" si="68">D628-G628</f>
+        <v>5</v>
+      </c>
+      <c r="J628" s="4">
+        <v>0</v>
+      </c>
+      <c r="K628" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D629" s="3">
+        <v>29</v>
+      </c>
+      <c r="E629" s="3">
+        <v>25</v>
+      </c>
+      <c r="F629" s="3">
+        <v>1</v>
+      </c>
+      <c r="G629" s="3">
+        <f t="shared" si="66"/>
+        <v>25</v>
+      </c>
+      <c r="H629" s="3">
+        <f t="shared" si="67"/>
+        <v>28.749999999999996</v>
+      </c>
+      <c r="I629" s="3">
+        <f t="shared" si="68"/>
+        <v>4</v>
+      </c>
+      <c r="J629" s="4">
+        <v>0</v>
+      </c>
+      <c r="K629" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D630" s="3">
+        <v>34</v>
+      </c>
+      <c r="E630" s="3">
+        <v>30</v>
+      </c>
+      <c r="F630" s="3">
+        <v>1</v>
+      </c>
+      <c r="G630" s="3">
+        <f t="shared" ref="G630:G634" si="69">E630/F630</f>
+        <v>30</v>
+      </c>
+      <c r="H630" s="3">
+        <f t="shared" ref="H630:H634" si="70">G630*1.15</f>
+        <v>34.5</v>
+      </c>
+      <c r="I630" s="3">
+        <f t="shared" ref="I630:I634" si="71">D630-G630</f>
+        <v>4</v>
+      </c>
+      <c r="J630" s="4">
+        <v>0</v>
+      </c>
+      <c r="K630" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D631" s="3">
+        <v>12</v>
+      </c>
+      <c r="E631" s="3">
+        <v>58</v>
+      </c>
+      <c r="F631" s="3">
+        <v>6</v>
+      </c>
+      <c r="G631" s="3">
+        <f t="shared" si="69"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="H631" s="3">
+        <f t="shared" si="70"/>
+        <v>11.116666666666665</v>
+      </c>
+      <c r="I631" s="3">
+        <f t="shared" si="71"/>
+        <v>2.3333333333333339</v>
+      </c>
+      <c r="J631" s="4">
+        <v>0</v>
+      </c>
       <c r="K631" s="10"/>
     </row>
-    <row r="632" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K632" s="10"/>
-    </row>
-    <row r="633" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K633" s="10"/>
-    </row>
-    <row r="634" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K634" s="10"/>
-    </row>
-    <row r="635" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K635" s="10"/>
-    </row>
-    <row r="636" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K636" s="10"/>
-    </row>
-    <row r="637" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D632" s="3">
+        <v>45</v>
+      </c>
+      <c r="E632" s="3">
+        <v>40</v>
+      </c>
+      <c r="F632" s="3">
+        <v>1</v>
+      </c>
+      <c r="G632" s="3">
+        <f t="shared" si="69"/>
+        <v>40</v>
+      </c>
+      <c r="H632" s="3">
+        <f t="shared" si="70"/>
+        <v>46</v>
+      </c>
+      <c r="I632" s="3">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="J632" s="4">
+        <v>0</v>
+      </c>
+      <c r="K632" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A633" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D633" s="3">
+        <v>1</v>
+      </c>
+      <c r="E633" s="3">
+        <v>65</v>
+      </c>
+      <c r="F633" s="3">
+        <v>100</v>
+      </c>
+      <c r="G633" s="3">
+        <f t="shared" si="69"/>
+        <v>0.65</v>
+      </c>
+      <c r="H633" s="3">
+        <f t="shared" si="70"/>
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="I633" s="3">
+        <f t="shared" si="71"/>
+        <v>0.35</v>
+      </c>
+      <c r="J633" s="4">
+        <v>0</v>
+      </c>
+      <c r="K633" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D634" s="3">
+        <v>25</v>
+      </c>
+      <c r="E634" s="3">
+        <v>20</v>
+      </c>
+      <c r="F634" s="3">
+        <v>1</v>
+      </c>
+      <c r="G634" s="3">
+        <f t="shared" si="69"/>
+        <v>20</v>
+      </c>
+      <c r="H634" s="3">
+        <f t="shared" si="70"/>
+        <v>23</v>
+      </c>
+      <c r="I634" s="3">
+        <f t="shared" si="71"/>
+        <v>5</v>
+      </c>
+      <c r="J634" s="4">
+        <v>-6</v>
+      </c>
+      <c r="K634" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D635" s="3">
+        <v>12</v>
+      </c>
+      <c r="E635" s="3">
+        <v>10</v>
+      </c>
+      <c r="F635" s="3">
+        <v>1</v>
+      </c>
+      <c r="G635" s="3">
+        <f t="shared" ref="G635" si="72">E635/F635</f>
+        <v>10</v>
+      </c>
+      <c r="H635" s="3">
+        <f t="shared" ref="H635" si="73">G635*1.15</f>
+        <v>11.5</v>
+      </c>
+      <c r="I635" s="3">
+        <f t="shared" ref="I635" si="74">D635-G635</f>
+        <v>2</v>
+      </c>
+      <c r="J635" s="4">
+        <v>-6</v>
+      </c>
+      <c r="K635" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D636" s="3">
+        <v>12</v>
+      </c>
+      <c r="E636" s="3">
+        <v>10</v>
+      </c>
+      <c r="F636" s="3">
+        <v>1</v>
+      </c>
+      <c r="G636" s="3">
+        <f t="shared" ref="G636:G638" si="75">E636/F636</f>
+        <v>10</v>
+      </c>
+      <c r="H636" s="3">
+        <f t="shared" ref="H636:H638" si="76">G636*1.15</f>
+        <v>11.5</v>
+      </c>
+      <c r="I636" s="3">
+        <f t="shared" ref="I636:I638" si="77">D636-G636</f>
+        <v>2</v>
+      </c>
+      <c r="J636" s="4">
+        <v>-6</v>
+      </c>
+      <c r="K636" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D637" s="3">
+        <v>110</v>
+      </c>
+      <c r="E637" s="3">
+        <v>95</v>
+      </c>
+      <c r="F637" s="3">
+        <v>1</v>
+      </c>
+      <c r="G637" s="3">
+        <f t="shared" si="75"/>
+        <v>95</v>
+      </c>
+      <c r="H637" s="3">
+        <f t="shared" si="76"/>
+        <v>109.24999999999999</v>
+      </c>
+      <c r="I637" s="3">
+        <f t="shared" si="77"/>
+        <v>15</v>
+      </c>
+      <c r="J637" s="4">
+        <v>0</v>
+      </c>
       <c r="K637" s="10"/>
     </row>
-    <row r="638" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K638" s="10"/>
-    </row>
-    <row r="639" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D638" s="3">
+        <v>81</v>
+      </c>
+      <c r="E638" s="3">
+        <v>211</v>
+      </c>
+      <c r="F638" s="3">
+        <v>3</v>
+      </c>
+      <c r="G638" s="3">
+        <f t="shared" si="75"/>
+        <v>70.333333333333329</v>
+      </c>
+      <c r="H638" s="3">
+        <f t="shared" si="76"/>
+        <v>80.883333333333326</v>
+      </c>
+      <c r="I638" s="3">
+        <f t="shared" si="77"/>
+        <v>10.666666666666671</v>
+      </c>
+      <c r="J638" s="4">
+        <v>0</v>
+      </c>
+      <c r="K638" s="5"/>
+    </row>
+    <row r="639" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K639" s="10"/>
     </row>
-    <row r="640" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K640" s="10"/>
     </row>
     <row r="641" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -28223,10 +28791,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:C43"/>
+  <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28429,6 +28997,14 @@
         <v>642</v>
       </c>
     </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C33" t="s">
+        <v>583</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>743</v>
@@ -28439,15 +29015,13 @@
         <v>742</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
-        <v>694</v>
-      </c>
-    </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>691</v>
       </c>
+      <c r="C37" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
@@ -28458,6 +29032,9 @@
       <c r="B39" s="13" t="s">
         <v>735</v>
       </c>
+      <c r="C39" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
@@ -28483,6 +29060,65 @@
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13" t="s">
         <v>746</v>
+      </c>
+      <c r="C43" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C44" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="C46" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC161A-565E-4FA0-9D26-E9AE63BF991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEE969-CF03-4E68-A3FF-565B6AF8E17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="799">
   <si>
     <t>location</t>
   </si>
@@ -2412,6 +2412,30 @@
   </si>
   <si>
     <t>พี่จอยบอกหักไปแล้ว</t>
+  </si>
+  <si>
+    <t>สุรา ฟ้า ดีกรี 65</t>
+  </si>
+  <si>
+    <t>ตัด 1/6</t>
+  </si>
+  <si>
+    <t>โทรศัพท์ oppo ไม 4400 คิดนาม 6000</t>
+  </si>
+  <si>
+    <t>ซันสแนค 12g * 12</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>29/30</t>
+  </si>
+  <si>
+    <t>กุ้งสด 120</t>
+  </si>
+  <si>
+    <t>ขนมลูกเต๋า</t>
   </si>
 </sst>
 </file>
@@ -2784,8 +2808,8 @@
   </sheetPr>
   <dimension ref="A1:N987"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301:J301"/>
+    <sheetView tabSelected="1" topLeftCell="A628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A643" sqref="A643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13917,21 +13941,21 @@
         <v>643</v>
       </c>
       <c r="D285" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E285" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F285" s="3">
         <v>1</v>
       </c>
       <c r="G285" s="3">
         <f t="shared" si="12"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H285" s="3">
         <f t="shared" si="13"/>
-        <v>31.049999999999997</v>
+        <v>33.349999999999994</v>
       </c>
       <c r="I285" s="3">
         <f t="shared" si="14"/>
@@ -25042,22 +25066,22 @@
         <v>38</v>
       </c>
       <c r="E578" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F578" s="3">
         <v>1</v>
       </c>
       <c r="G578" s="3">
         <f t="shared" si="27"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H578" s="3">
         <f t="shared" si="28"/>
-        <v>37.949999999999996</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I578" s="3">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J578" s="4">
         <v>0</v>
@@ -27226,15 +27250,15 @@
         <v>1</v>
       </c>
       <c r="G636" s="3">
-        <f t="shared" ref="G636:G638" si="75">E636/F636</f>
+        <f t="shared" ref="G636:G640" si="75">E636/F636</f>
         <v>10</v>
       </c>
       <c r="H636" s="3">
-        <f t="shared" ref="H636:H638" si="76">G636*1.15</f>
+        <f t="shared" ref="H636:H640" si="76">G636*1.15</f>
         <v>11.5</v>
       </c>
       <c r="I636" s="3">
-        <f t="shared" ref="I636:I638" si="77">D636-G636</f>
+        <f t="shared" ref="I636:I640" si="77">D636-G636</f>
         <v>2</v>
       </c>
       <c r="J636" s="4">
@@ -27316,58 +27340,208 @@
       </c>
       <c r="K638" s="5"/>
     </row>
-    <row r="639" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K639" s="10"/>
-    </row>
-    <row r="640" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K640" s="10"/>
-    </row>
-    <row r="641" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K641" s="10"/>
-    </row>
-    <row r="642" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K642" s="10"/>
-    </row>
-    <row r="643" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A639" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B639" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C639" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="D639">
+        <v>65</v>
+      </c>
+      <c r="E639">
+        <v>60</v>
+      </c>
+      <c r="F639">
+        <v>1</v>
+      </c>
+      <c r="G639" s="3">
+        <f t="shared" si="75"/>
+        <v>60</v>
+      </c>
+      <c r="H639" s="3">
+        <f t="shared" si="76"/>
+        <v>69</v>
+      </c>
+      <c r="I639" s="3">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="J639">
+        <v>0</v>
+      </c>
+      <c r="K639">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C640" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="D640" s="3">
+        <v>5</v>
+      </c>
+      <c r="E640" s="3">
+        <v>46</v>
+      </c>
+      <c r="F640" s="3">
+        <v>12</v>
+      </c>
+      <c r="G640" s="3">
+        <f t="shared" si="75"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="H640" s="3">
+        <f t="shared" si="76"/>
+        <v>4.4083333333333332</v>
+      </c>
+      <c r="I640" s="3">
+        <f t="shared" si="77"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="J640" s="4">
+        <v>0</v>
+      </c>
+      <c r="K640" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D641" s="3">
+        <v>120</v>
+      </c>
+      <c r="E641" s="3">
+        <v>105</v>
+      </c>
+      <c r="F641" s="3">
+        <v>1</v>
+      </c>
+      <c r="G641" s="3">
+        <f t="shared" ref="G641:G643" si="78">E641/F641</f>
+        <v>105</v>
+      </c>
+      <c r="H641" s="3">
+        <f t="shared" ref="H641:H643" si="79">G641*1.15</f>
+        <v>120.74999999999999</v>
+      </c>
+      <c r="I641" s="3">
+        <f t="shared" ref="I641:I643" si="80">D641-G641</f>
+        <v>15</v>
+      </c>
+      <c r="J641" s="4">
+        <v>0</v>
+      </c>
+      <c r="K641" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D642" s="3">
+        <v>5</v>
+      </c>
+      <c r="E642" s="3">
+        <v>4</v>
+      </c>
+      <c r="F642" s="3">
+        <v>1</v>
+      </c>
+      <c r="G642" s="3">
+        <f t="shared" si="78"/>
+        <v>4</v>
+      </c>
+      <c r="H642" s="3">
+        <f t="shared" si="79"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I642" s="3">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="J642" s="4">
+        <v>0</v>
+      </c>
+      <c r="K642" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A643" s="24"/>
+      <c r="B643" s="24"/>
+      <c r="C643" s="24"/>
+      <c r="D643" s="8"/>
+      <c r="E643" s="8"/>
+      <c r="F643" s="8"/>
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+      <c r="I643" s="3"/>
+      <c r="J643" s="4"/>
       <c r="K643" s="10"/>
     </row>
-    <row r="644" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K644" s="10"/>
     </row>
-    <row r="645" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K645" s="10"/>
     </row>
-    <row r="646" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K646" s="10"/>
     </row>
-    <row r="647" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K647" s="10"/>
     </row>
-    <row r="648" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K648" s="10"/>
     </row>
-    <row r="649" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K649" s="10"/>
     </row>
-    <row r="650" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K650" s="10"/>
     </row>
-    <row r="651" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K651" s="10"/>
     </row>
-    <row r="652" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K652" s="10"/>
     </row>
-    <row r="653" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K653" s="10"/>
     </row>
-    <row r="654" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K654" s="10"/>
     </row>
-    <row r="655" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K655" s="10"/>
     </row>
-    <row r="656" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K656" s="10"/>
     </row>
     <row r="657" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -28379,10 +28553,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28776,6 +28950,77 @@
       </c>
       <c r="B42">
         <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -28791,10 +29036,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:C53"/>
+  <dimension ref="A2:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29119,6 +29364,11 @@
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEE969-CF03-4E68-A3FF-565B6AF8E17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E39E0-86C9-4D3E-BF51-D7A888119325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="780" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ซื้อของ" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ของ!$A$1:$K$604</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ของ!$A$1:$K$691</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="914">
   <si>
     <t>location</t>
   </si>
@@ -2436,6 +2436,351 @@
   </si>
   <si>
     <t>ขนมลูกเต๋า</t>
+  </si>
+  <si>
+    <t>โออิชิ เกี๊ยวซ่า 12ช 240g</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>ไมโล 170/180g * 48</t>
+  </si>
+  <si>
+    <t>อิชิตัน ชาเขียว 280ml * 24</t>
+  </si>
+  <si>
+    <t>แป้ง วังทิพย์ 150g * 8</t>
+  </si>
+  <si>
+    <t>ตัด 9/6</t>
+  </si>
+  <si>
+    <t>ขาด6อย่างเพียวริคุชมพู 9/6</t>
+  </si>
+  <si>
+    <t>โอวัลติน เก่า 220 ใหม่ 180ml</t>
+  </si>
+  <si>
+    <t>ตัด 10/6</t>
+  </si>
+  <si>
+    <t>ขาด</t>
+  </si>
+  <si>
+    <t>ไก่จ๊อ 5 ดาว 1000g</t>
+  </si>
+  <si>
+    <t>ยากำจัดแมลง อาทเจ็ทโกลด์ 600ml * 3</t>
+  </si>
+  <si>
+    <t>อิชิตัน องุ่นเคียวโฮ 280ml * 24</t>
+  </si>
+  <si>
+    <t>ไม โทร oppo</t>
+  </si>
+  <si>
+    <t>ไวไวซอง หอยลายผัดฉ่า 60g</t>
+  </si>
+  <si>
+    <t>สลัดผัก</t>
+  </si>
+  <si>
+    <t>โอวัลติน 225ml * 36</t>
+  </si>
+  <si>
+    <t>ขาด2อย่าง sponsorน้ำแข็ง 9/6</t>
+  </si>
+  <si>
+    <t>ขาดดัชมิล 5/6</t>
+  </si>
+  <si>
+    <t>ขาดกับข้าว5 5/6</t>
+  </si>
+  <si>
+    <t>ขาด2สุราฟ้าm100 3/6</t>
+  </si>
+  <si>
+    <t>ขาดลาเต้3/6</t>
+  </si>
+  <si>
+    <t>ขาด3นขเบอร์ดี้แดงm100 3/6</t>
+  </si>
+  <si>
+    <t>ok เหมือน คิด10/6ครั้งหน้า</t>
+  </si>
+  <si>
+    <t>สด ok</t>
+  </si>
+  <si>
+    <t>ยศ ok ลบดัชมิล คิด10/6</t>
+  </si>
+  <si>
+    <t>ขาด2อย่าง น้ำญน้ำแข็ว 8/6</t>
+  </si>
+  <si>
+    <t>ใคร6ขนมตาล</t>
+  </si>
+  <si>
+    <t>ข้าวหอมหงษ์ทิพย์ แดง</t>
+  </si>
+  <si>
+    <t>20-6</t>
+  </si>
+  <si>
+    <t>จูลี่ cracker lemon</t>
+  </si>
+  <si>
+    <t>ตัด 23/6</t>
+  </si>
+  <si>
+    <t>หริ่ง sharp สหกรณ์ 399 สด 500</t>
+  </si>
+  <si>
+    <t>ยศ กุ้งสด 120</t>
+  </si>
+  <si>
+    <t>โซดา ขวด Rock</t>
+  </si>
+  <si>
+    <t>ครีมโอ แท่งเล็ก 90g * 6</t>
+  </si>
+  <si>
+    <t>ขาด 6 อย่าง 17/6 โยคี</t>
+  </si>
+  <si>
+    <t>ขาด 2 20/6 ปลาส้มแบบแหนม</t>
+  </si>
+  <si>
+    <t>11-6</t>
+  </si>
+  <si>
+    <t>นีเวียโรลออน 25ml * 3</t>
+  </si>
+  <si>
+    <t>ขนมปัง farmhouse สไลด์ขอบ 220g</t>
+  </si>
+  <si>
+    <t>น้ำยาล้างจาน Viking 400ml * 3</t>
+  </si>
+  <si>
+    <t>แจ๊กซ์ 20บ</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด 23/6</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด 16/6</t>
+  </si>
+  <si>
+    <t>ยกยอดชาญ 526</t>
+  </si>
+  <si>
+    <t>อาท เจ็ท โกลด์ สเปรย์กำจัดยุงและแมลง 300ml * 3</t>
+  </si>
+  <si>
+    <t>ยา คาดรามาย วี โลชั่น กล่องเขียว</t>
+  </si>
+  <si>
+    <t>เพิ่ม 20 รอบหน้า</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด 1/7</t>
+  </si>
+  <si>
+    <t>ชินมัย</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>มะเขือยาวสด</t>
+  </si>
+  <si>
+    <t>พริกสด</t>
+  </si>
+  <si>
+    <t>กระเพาะปลา 45</t>
+  </si>
+  <si>
+    <t>มะนาว</t>
+  </si>
+  <si>
+    <t>ยากันยุง กย 15</t>
+  </si>
+  <si>
+    <t>ยำยำ รสต้มยำทะเลน้ำข้น ฟ้า * 30</t>
+  </si>
+  <si>
+    <t>ตัด 7/7</t>
+  </si>
+  <si>
+    <t>น้อย</t>
+  </si>
+  <si>
+    <t>พงษ์</t>
+  </si>
+  <si>
+    <t>ไม่มี</t>
+  </si>
+  <si>
+    <t>วาลี</t>
+  </si>
+  <si>
+    <t>กับข้าว 35</t>
+  </si>
+  <si>
+    <t>ปลาส้ม 40</t>
+  </si>
+  <si>
+    <t>น้ำลำไย 35</t>
+  </si>
+  <si>
+    <t>ชิคเก้นริบ CP 1kg</t>
+  </si>
+  <si>
+    <t>กิ๊ฟ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>กล้วยตาก</t>
+  </si>
+  <si>
+    <t>กล้วยน้ำว้า</t>
+  </si>
+  <si>
+    <t>ห่อแหนม</t>
+  </si>
+  <si>
+    <t>ขนมดอกบัว</t>
+  </si>
+  <si>
+    <t>หม้อต้มมาม่ามินิ</t>
+  </si>
+  <si>
+    <t>กับข้าว 20</t>
+  </si>
+  <si>
+    <t>ตัด 21/7</t>
+  </si>
+  <si>
+    <t>ขาดมาม่า6 18/7</t>
+  </si>
+  <si>
+    <t>ขาดถั่วน้ำแข็ง 17/7</t>
+  </si>
+  <si>
+    <t>ขาด5 14/7</t>
+  </si>
+  <si>
+    <t>ขาดน้ำแข็ง 12/7</t>
+  </si>
+  <si>
+    <t>ขาด11 11/7</t>
+  </si>
+  <si>
+    <t>ขาด1 10/7</t>
+  </si>
+  <si>
+    <t>ขาด 8/7</t>
+  </si>
+  <si>
+    <t>ปลาส้ม ราคาขึ้น 40</t>
+  </si>
+  <si>
+    <t>น้ำลำไยขึ้น 35</t>
+  </si>
+  <si>
+    <t>เกี๊ยวกล่องเล็ก 30</t>
+  </si>
+  <si>
+    <t>เช็คข้าว</t>
+  </si>
+  <si>
+    <t>ข้าวตราฉัตร ฟ้า 5kg</t>
+  </si>
+  <si>
+    <t>ระดับน้ำ 60cm</t>
+  </si>
+  <si>
+    <t>ซีตร้า 50ml * 3</t>
+  </si>
+  <si>
+    <t>ครัววังทิพย์ แป้งทอดกรอบ 150g</t>
+  </si>
+  <si>
+    <t>สบู่ ตรามังกร 172g * 4</t>
+  </si>
+  <si>
+    <t>น้ำปลา ทิพรส 60ml * 12</t>
+  </si>
+  <si>
+    <t>ยศ 200 หักรอบที่แล้ว</t>
+  </si>
+  <si>
+    <t>พงศ์พันธ์ที่ยังไม่ได้โอนรอบที่แล้ว</t>
+  </si>
+  <si>
+    <t>สหกรณ์ (22/7 ถึง 4/8):</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด (22/7 ถึง 4/8):</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด (5/8 ถึง 19/8):</t>
+  </si>
+  <si>
+    <t>13-8</t>
+  </si>
+  <si>
+    <t>ข้าวหอมมะลิ ตราฉัตร 5kg</t>
+  </si>
+  <si>
+    <t>ข้าวหอมมะลิ ตราหงษ์ทิพย์ 5kg</t>
+  </si>
+  <si>
+    <t>แหนมดอนเมืองย่างหมู+ไก่ JPM 850g * 10</t>
+  </si>
+  <si>
+    <t>หมูสดอนามัย SUPER CHEF 200g</t>
+  </si>
+  <si>
+    <t>โบโลน่าราคาขุเร</t>
+  </si>
+  <si>
+    <t>อกไก่ติดหนังแช่แข็ง 250g</t>
+  </si>
+  <si>
+    <t>สะโพกไก่ SUPER CHEF * 170g</t>
+  </si>
+  <si>
+    <t>ขนมไข่กรอบ coming hight</t>
+  </si>
+  <si>
+    <t>มาม่าซอง OKR</t>
+  </si>
+  <si>
+    <t>แอทเทค อีซี่ 800g</t>
+  </si>
+  <si>
+    <t>ขนมโก๋</t>
+  </si>
+  <si>
+    <t>ยาขม น้ำเต้าทอง เขียว</t>
+  </si>
+  <si>
+    <t>สุขวัต ผ่อนวีคละ 500</t>
+  </si>
+  <si>
+    <t>ไส้กรอบ 100</t>
+  </si>
+  <si>
+    <t>ขนมเปียะ 30</t>
+  </si>
+  <si>
+    <t>สหกรณ์ (5/8 ถึง 18/8):</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2792,7 @@
     <numFmt numFmtId="165" formatCode="d/m"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2509,13 +2854,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2527,10 +2920,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2584,12 +2980,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2806,10 +3211,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N987"/>
+  <dimension ref="A1:N986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A643" sqref="A643"/>
+    <sheetView topLeftCell="A668" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3862,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>36</v>
+        <v>897</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="4"/>
@@ -5112,10 +5517,10 @@
         <v>0.29166666666666674</v>
       </c>
       <c r="J59" s="4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="4"/>
@@ -6387,7 +6792,7 @@
         <v>48</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="M91" s="6"/>
       <c r="N91" s="4"/>
@@ -6507,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="4"/>
@@ -6587,7 +6992,7 @@
         <v>6</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="4"/>
@@ -6764,28 +7169,28 @@
         <v>10</v>
       </c>
       <c r="E101" s="3">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F101" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G101" s="3">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="H101" s="3">
         <f t="shared" si="4"/>
-        <v>10.35</v>
+        <v>9.3916666666666657</v>
       </c>
       <c r="I101" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.8333333333333339</v>
       </c>
       <c r="J101" s="4">
         <v>0</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>16</v>
+        <v>897</v>
       </c>
       <c r="M101" s="6"/>
       <c r="N101" s="4"/>
@@ -6822,9 +7227,11 @@
         <v>2.8333333333333321</v>
       </c>
       <c r="J102" s="4">
-        <v>0</v>
-      </c>
-      <c r="K102" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="M102" s="6"/>
       <c r="N102" s="4"/>
     </row>
@@ -7235,7 +7642,7 @@
         <v>467</v>
       </c>
       <c r="D113" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3">
         <v>205</v>
@@ -7253,14 +7660,13 @@
       </c>
       <c r="I113" s="3">
         <f t="shared" si="5"/>
-        <v>1.4583333333333339</v>
+        <v>3.4583333333333339</v>
       </c>
       <c r="J113" s="4">
-        <f>24+48</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>29</v>
+        <v>828</v>
       </c>
       <c r="M113" s="6"/>
       <c r="N113" s="4"/>
@@ -7340,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
       <c r="M115" s="6"/>
       <c r="N115" s="4"/>
@@ -7864,30 +8270,32 @@
         <v>321</v>
       </c>
       <c r="D129" s="3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E129" s="3">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="F129" s="3">
         <v>6</v>
       </c>
       <c r="G129" s="3">
         <f t="shared" si="3"/>
-        <v>28.5</v>
+        <v>31.166666666666668</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="4"/>
-        <v>32.774999999999999</v>
+        <v>35.841666666666669</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>4.8333333333333321</v>
       </c>
       <c r="J129" s="4">
-        <v>1</v>
-      </c>
-      <c r="K129" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="M129" s="6"/>
       <c r="N129" s="4"/>
     </row>
@@ -8195,9 +8603,11 @@
         <v>4.5</v>
       </c>
       <c r="J137" s="4">
-        <v>7</v>
-      </c>
-      <c r="K137" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="M137" s="6"/>
       <c r="N137" s="4"/>
     </row>
@@ -8476,7 +8886,7 @@
         <v>12</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="M144" s="6"/>
       <c r="N144" s="4"/>
@@ -8513,11 +8923,10 @@
         <v>1.5833333333333339</v>
       </c>
       <c r="J145" s="4">
-        <f>25+12+12</f>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>42</v>
+        <v>800</v>
       </c>
       <c r="M145" s="6"/>
       <c r="N145" s="4"/>
@@ -8635,7 +9044,7 @@
         <v>36</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="M148" s="6"/>
       <c r="N148" s="4"/>
@@ -8866,10 +9275,10 @@
         <v>3.6666666666666679</v>
       </c>
       <c r="J154" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="M154" s="6"/>
       <c r="N154" s="4"/>
@@ -9621,30 +10030,32 @@
         <v>282</v>
       </c>
       <c r="D174" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E174" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F174" s="3">
         <v>3</v>
       </c>
       <c r="G174" s="3">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="H174" s="3">
         <f t="shared" si="7"/>
-        <v>35.65</v>
+        <v>36.416666666666664</v>
       </c>
       <c r="I174" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="J174" s="4">
-        <v>3</v>
-      </c>
-      <c r="K174" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="M174" s="6"/>
       <c r="N174" s="4"/>
     </row>
@@ -9659,30 +10070,32 @@
         <v>283</v>
       </c>
       <c r="D175" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E175" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F175" s="3">
         <v>3</v>
       </c>
       <c r="G175" s="3">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="H175" s="3">
         <f t="shared" si="7"/>
-        <v>35.65</v>
+        <v>36.416666666666664</v>
       </c>
       <c r="I175" s="3">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="J175" s="4">
-        <v>0</v>
-      </c>
-      <c r="K175" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="M175" s="6"/>
       <c r="N175" s="4"/>
     </row>
@@ -9794,9 +10207,11 @@
         <v>3</v>
       </c>
       <c r="J178" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K178" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="K178" s="10" t="s">
+        <v>897</v>
+      </c>
       <c r="M178" s="6"/>
       <c r="N178" s="4"/>
     </row>
@@ -10769,9 +11184,11 @@
         <v>2.96</v>
       </c>
       <c r="J203" s="4">
-        <v>44</v>
-      </c>
-      <c r="K203" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>837</v>
+      </c>
       <c r="M203" s="6"/>
       <c r="N203" s="4"/>
     </row>
@@ -10905,27 +11322,29 @@
         <v>7</v>
       </c>
       <c r="E207" s="3">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F207" s="3">
         <v>30</v>
       </c>
       <c r="G207" s="3">
         <f t="shared" si="9"/>
-        <v>5.666666666666667</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="H207" s="3">
         <f t="shared" si="10"/>
-        <v>6.5166666666666666</v>
+        <v>6.5933333333333328</v>
       </c>
       <c r="I207" s="3">
         <f t="shared" si="11"/>
-        <v>1.333333333333333</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J207" s="4">
-        <v>35</v>
-      </c>
-      <c r="K207" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>837</v>
+      </c>
       <c r="M207" s="6"/>
       <c r="N207" s="4"/>
     </row>
@@ -10940,7 +11359,7 @@
         <v>412</v>
       </c>
       <c r="D208" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E208" s="3">
         <v>330</v>
@@ -10958,13 +11377,13 @@
       </c>
       <c r="I208" s="3">
         <f t="shared" si="11"/>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="J208" s="4">
         <v>24</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="M208" s="6"/>
       <c r="N208" s="4"/>
@@ -11004,7 +11423,7 @@
         <v>12</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="4"/>
@@ -11041,10 +11460,10 @@
         <v>1.25</v>
       </c>
       <c r="J210" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="M210" s="6"/>
       <c r="N210" s="4"/>
@@ -11060,7 +11479,7 @@
         <v>438</v>
       </c>
       <c r="D211" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E211" s="3">
         <v>105</v>
@@ -11078,12 +11497,14 @@
       </c>
       <c r="I211" s="3">
         <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="J211" s="4">
         <v>3</v>
       </c>
-      <c r="J211" s="4">
-        <v>0</v>
-      </c>
-      <c r="K211" s="5"/>
+      <c r="K211" s="5" t="s">
+        <v>837</v>
+      </c>
       <c r="M211" s="6"/>
       <c r="N211" s="4"/>
     </row>
@@ -11119,9 +11540,11 @@
         <v>12</v>
       </c>
       <c r="J212" s="4">
-        <v>0</v>
-      </c>
-      <c r="K212" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="M212" s="6"/>
       <c r="N212" s="4"/>
     </row>
@@ -13272,7 +13695,9 @@
       <c r="J267" s="4">
         <v>2</v>
       </c>
-      <c r="K267" s="5"/>
+      <c r="K267" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="M267" s="6"/>
       <c r="N267" s="4"/>
     </row>
@@ -13328,28 +13753,28 @@
         <v>115</v>
       </c>
       <c r="E269" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F269" s="3">
         <v>1</v>
       </c>
       <c r="G269" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H269" s="3">
         <f t="shared" si="13"/>
-        <v>1.1499999999999999</v>
+        <v>103.49999999999999</v>
       </c>
       <c r="I269" s="3">
         <f t="shared" si="14"/>
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="J269" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K269" s="5" t="s">
-        <v>102</v>
+        <v>800</v>
       </c>
       <c r="M269" s="6"/>
       <c r="N269" s="4"/>
@@ -14156,9 +14581,11 @@
         <v>3</v>
       </c>
       <c r="J290" s="4">
-        <v>0</v>
-      </c>
-      <c r="K290" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="M290" s="6"/>
       <c r="N290" s="4"/>
     </row>
@@ -14658,9 +15085,11 @@
         <v>2.5500000000000007</v>
       </c>
       <c r="J303" s="4">
-        <v>0</v>
-      </c>
-      <c r="K303" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="K303" s="5" t="s">
+        <v>897</v>
+      </c>
       <c r="M303" s="6"/>
       <c r="N303" s="4"/>
     </row>
@@ -14909,30 +15338,32 @@
         <v>167</v>
       </c>
       <c r="D310" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E310" s="3">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F310" s="3">
         <v>6</v>
       </c>
       <c r="G310" s="3">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="H310" s="3">
         <f t="shared" si="13"/>
-        <v>32.199999999999996</v>
+        <v>35.458333333333329</v>
       </c>
       <c r="I310" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5.1666666666666679</v>
       </c>
       <c r="J310" s="4">
-        <v>0</v>
-      </c>
-      <c r="K310" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>837</v>
+      </c>
       <c r="M310" s="6"/>
       <c r="N310" s="4"/>
     </row>
@@ -16700,10 +17131,10 @@
         <v>5.416666666666667</v>
       </c>
       <c r="J356" s="4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>27</v>
+        <v>837</v>
       </c>
       <c r="M356" s="6"/>
       <c r="N356" s="4"/>
@@ -18194,10 +18625,10 @@
         <v>3</v>
       </c>
       <c r="J394" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K394" s="5" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="M394" s="6"/>
       <c r="N394" s="4"/>
@@ -20261,9 +20692,11 @@
         <v>3</v>
       </c>
       <c r="J448" s="4">
-        <v>0</v>
-      </c>
-      <c r="K448" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="449" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
@@ -20408,7 +20841,7 @@
         <v>4</v>
       </c>
       <c r="K452" s="2" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="453" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -21672,31 +22105,31 @@
         <v>365</v>
       </c>
       <c r="D487" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E487" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F487" s="3">
         <v>6</v>
       </c>
       <c r="G487" s="3">
         <f t="shared" si="24"/>
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H487" s="3">
         <f t="shared" si="25"/>
-        <v>7.2833333333333323</v>
+        <v>7.6666666666666661</v>
       </c>
       <c r="I487" s="3">
         <f t="shared" si="26"/>
-        <v>0.66666666666666696</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J487" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K487" s="2" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -21731,10 +22164,10 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="J488" s="4">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K488" s="2" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="489" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -21751,28 +22184,28 @@
         <v>7</v>
       </c>
       <c r="E489" s="3">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F489" s="3">
         <v>40</v>
       </c>
       <c r="G489" s="3">
         <f t="shared" si="24"/>
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="H489" s="3">
         <f t="shared" si="25"/>
-        <v>6.669999999999999</v>
+        <v>6.7274999999999991</v>
       </c>
       <c r="I489" s="3">
         <f t="shared" si="26"/>
-        <v>1.2000000000000002</v>
+        <v>1.1500000000000004</v>
       </c>
       <c r="J489" s="4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K489" s="2" t="s">
-        <v>42</v>
+        <v>800</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -21845,10 +22278,10 @@
         <v>1.333333333333333</v>
       </c>
       <c r="J491" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K491" s="2" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="492" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -22226,9 +22659,11 @@
         <v>8.5833333333333339</v>
       </c>
       <c r="J501" s="4">
-        <v>0</v>
-      </c>
-      <c r="K501" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="K501" s="5" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="502" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="26" t="s">
@@ -23373,7 +23808,7 @@
         <v>12</v>
       </c>
       <c r="K532" s="2" t="s">
-        <v>29</v>
+        <v>897</v>
       </c>
     </row>
     <row r="533" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -23446,9 +23881,11 @@
         <v>1.75</v>
       </c>
       <c r="J534" s="4">
-        <v>4</v>
-      </c>
-      <c r="K534" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="K534" s="7" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="535" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
@@ -23485,7 +23922,7 @@
         <v>4</v>
       </c>
       <c r="K535" s="2" t="s">
-        <v>42</v>
+        <v>837</v>
       </c>
     </row>
     <row r="536" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24193,7 +24630,7 @@
         <v>1</v>
       </c>
       <c r="K554" s="5" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="555" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24228,10 +24665,10 @@
         <v>26</v>
       </c>
       <c r="J555" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K555" s="5" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="556" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24338,10 +24775,10 @@
         <v>2</v>
       </c>
       <c r="J558" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K558" s="10" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="559" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24742,10 +25179,10 @@
         <v>1.875</v>
       </c>
       <c r="J569" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K569" s="2" t="s">
-        <v>27</v>
+        <v>800</v>
       </c>
     </row>
     <row r="570" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24818,10 +25255,10 @@
         <v>1.875</v>
       </c>
       <c r="J571" s="4">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="K571" s="2" t="s">
-        <v>27</v>
+        <v>800</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -24894,10 +25331,10 @@
         <v>1.5</v>
       </c>
       <c r="J573" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K573" s="2" t="s">
-        <v>42</v>
+        <v>897</v>
       </c>
     </row>
     <row r="574" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25008,10 +25445,10 @@
         <v>3.5</v>
       </c>
       <c r="J576" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K576" s="5" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="577" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25275,7 +25712,7 @@
         <v>6</v>
       </c>
       <c r="K583" s="5" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
     </row>
     <row r="584" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25351,7 +25788,7 @@
         <v>24</v>
       </c>
       <c r="K585" s="10" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="586" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25389,7 +25826,7 @@
         <v>5</v>
       </c>
       <c r="K586" s="5" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="587" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25465,7 +25902,7 @@
         <v>6</v>
       </c>
       <c r="K588" s="2" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="589" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25520,28 +25957,28 @@
         <v>5</v>
       </c>
       <c r="E590" s="3">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F590" s="3">
         <v>24</v>
       </c>
       <c r="G590" s="3">
         <f t="shared" ref="G590:G602" si="30">E590/F590</f>
-        <v>3.5416666666666665</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="H590" s="3">
         <f t="shared" ref="H590:H609" si="31">G590*1.15</f>
-        <v>4.0729166666666661</v>
+        <v>4.4083333333333332</v>
       </c>
       <c r="I590" s="3">
         <f t="shared" ref="I590:I602" si="32">D590-G590</f>
-        <v>1.4583333333333335</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="J590" s="4">
         <v>24</v>
       </c>
       <c r="K590" s="10" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="591" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25579,7 +26016,7 @@
         <v>6</v>
       </c>
       <c r="K591" s="10" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
     </row>
     <row r="592" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -25959,7 +26396,7 @@
         <v>5</v>
       </c>
       <c r="K601" s="5" t="s">
-        <v>697</v>
+        <v>897</v>
       </c>
     </row>
     <row r="602" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -26939,31 +27376,31 @@
         <v>767</v>
       </c>
       <c r="D628" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E628" s="3">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="F628" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G628" s="3">
         <f t="shared" ref="G628:G629" si="66">E628/F628</f>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="H628" s="3">
         <f t="shared" ref="H628:H629" si="67">G628*1.15</f>
-        <v>40.25</v>
+        <v>43.125</v>
       </c>
       <c r="I628" s="3">
         <f t="shared" ref="I628:I629" si="68">D628-G628</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J628" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K628" s="10" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
     </row>
     <row r="629" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -27053,30 +27490,32 @@
         <v>770</v>
       </c>
       <c r="D631" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E631" s="3">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F631" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G631" s="3">
         <f t="shared" si="69"/>
-        <v>9.6666666666666661</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H631" s="3">
         <f t="shared" si="70"/>
-        <v>11.116666666666665</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="I631" s="3">
         <f t="shared" si="71"/>
-        <v>2.3333333333333339</v>
+        <v>1.6666666666666661</v>
       </c>
       <c r="J631" s="4">
-        <v>0</v>
-      </c>
-      <c r="K631" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="K631" s="10" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="632" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
@@ -27279,30 +27718,32 @@
         <v>787</v>
       </c>
       <c r="D637" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E637" s="3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F637" s="3">
         <v>1</v>
       </c>
       <c r="G637" s="3">
         <f t="shared" si="75"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H637" s="3">
         <f t="shared" si="76"/>
-        <v>109.24999999999999</v>
+        <v>113.85</v>
       </c>
       <c r="I637" s="3">
         <f t="shared" si="77"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J637" s="4">
-        <v>0</v>
-      </c>
-      <c r="K637" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K637" s="10" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="638" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
@@ -27436,15 +27877,15 @@
         <v>1</v>
       </c>
       <c r="G641" s="3">
-        <f t="shared" ref="G641:G643" si="78">E641/F641</f>
+        <f t="shared" ref="G641:G647" si="78">E641/F641</f>
         <v>105</v>
       </c>
       <c r="H641" s="3">
-        <f t="shared" ref="H641:H643" si="79">G641*1.15</f>
+        <f t="shared" ref="H641:H647" si="79">G641*1.15</f>
         <v>120.74999999999999</v>
       </c>
       <c r="I641" s="3">
-        <f t="shared" ref="I641:I643" si="80">D641-G641</f>
+        <f t="shared" ref="I641:I647" si="80">D641-G641</f>
         <v>15</v>
       </c>
       <c r="J641" s="4">
@@ -27489,203 +27930,2075 @@
         <v>0</v>
       </c>
       <c r="K642" s="2" t="s">
-        <v>91</v>
+        <v>795</v>
       </c>
     </row>
     <row r="643" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A643" s="24"/>
-      <c r="B643" s="24"/>
-      <c r="C643" s="24"/>
-      <c r="D643" s="8"/>
-      <c r="E643" s="8"/>
-      <c r="F643" s="8"/>
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
-      <c r="I643" s="3"/>
-      <c r="J643" s="4"/>
-      <c r="K643" s="10"/>
-    </row>
-    <row r="644" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K644" s="10"/>
-    </row>
-    <row r="645" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K645" s="10"/>
-    </row>
-    <row r="646" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K646" s="10"/>
-    </row>
-    <row r="647" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K647" s="10"/>
-    </row>
-    <row r="648" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K648" s="10"/>
-    </row>
-    <row r="649" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K649" s="10"/>
-    </row>
-    <row r="650" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K650" s="10"/>
-    </row>
-    <row r="651" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K651" s="10"/>
-    </row>
-    <row r="652" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K652" s="10"/>
-    </row>
-    <row r="653" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K653" s="10"/>
-    </row>
-    <row r="654" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K654" s="10"/>
-    </row>
-    <row r="655" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K655" s="10"/>
-    </row>
-    <row r="656" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K656" s="10"/>
-    </row>
-    <row r="657" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K657" s="10"/>
-    </row>
-    <row r="658" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K658" s="10"/>
-    </row>
-    <row r="659" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K659" s="10"/>
-    </row>
-    <row r="660" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K660" s="10"/>
-    </row>
-    <row r="661" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K661" s="10"/>
-    </row>
-    <row r="662" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K662" s="10"/>
-    </row>
-    <row r="663" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K663" s="10"/>
-    </row>
-    <row r="664" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K664" s="10"/>
-    </row>
-    <row r="665" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K665" s="10"/>
-    </row>
-    <row r="666" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K666" s="10"/>
-    </row>
-    <row r="667" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K667" s="10"/>
-    </row>
-    <row r="668" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K668" s="10"/>
-    </row>
-    <row r="669" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K669" s="10"/>
-    </row>
-    <row r="670" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K670" s="10"/>
-    </row>
-    <row r="671" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K671" s="10"/>
-    </row>
-    <row r="672" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C643" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="D643" s="3">
+        <v>137</v>
+      </c>
+      <c r="E643" s="3">
+        <v>119</v>
+      </c>
+      <c r="F643" s="3">
+        <v>1</v>
+      </c>
+      <c r="G643" s="3">
+        <f t="shared" si="78"/>
+        <v>119</v>
+      </c>
+      <c r="H643" s="3">
+        <f t="shared" si="79"/>
+        <v>136.85</v>
+      </c>
+      <c r="I643" s="3">
+        <f t="shared" si="80"/>
+        <v>18</v>
+      </c>
+      <c r="J643" s="4">
+        <v>10</v>
+      </c>
+      <c r="K643" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D644" s="3">
+        <v>10</v>
+      </c>
+      <c r="E644" s="3">
+        <v>409</v>
+      </c>
+      <c r="F644" s="3">
+        <v>48</v>
+      </c>
+      <c r="G644" s="3">
+        <f t="shared" si="78"/>
+        <v>8.5208333333333339</v>
+      </c>
+      <c r="H644" s="3">
+        <f t="shared" si="79"/>
+        <v>9.7989583333333332</v>
+      </c>
+      <c r="I644" s="3">
+        <f t="shared" si="80"/>
+        <v>1.4791666666666661</v>
+      </c>
+      <c r="J644" s="4">
+        <v>48</v>
+      </c>
+      <c r="K644" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D645" s="3">
+        <v>10</v>
+      </c>
+      <c r="E645" s="3">
+        <v>195</v>
+      </c>
+      <c r="F645" s="3">
+        <v>24</v>
+      </c>
+      <c r="G645" s="3">
+        <f t="shared" si="78"/>
+        <v>8.125</v>
+      </c>
+      <c r="H645" s="3">
+        <f t="shared" si="79"/>
+        <v>9.34375</v>
+      </c>
+      <c r="I645" s="3">
+        <f t="shared" si="80"/>
+        <v>1.875</v>
+      </c>
+      <c r="J645" s="4">
+        <v>24</v>
+      </c>
+      <c r="K645" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D646" s="3">
+        <v>13</v>
+      </c>
+      <c r="E646" s="3">
+        <v>85</v>
+      </c>
+      <c r="F646" s="3">
+        <v>8</v>
+      </c>
+      <c r="G646" s="3">
+        <f t="shared" si="78"/>
+        <v>10.625</v>
+      </c>
+      <c r="H646" s="3">
+        <f t="shared" si="79"/>
+        <v>12.218749999999998</v>
+      </c>
+      <c r="I646" s="3">
+        <f t="shared" si="80"/>
+        <v>2.375</v>
+      </c>
+      <c r="J646" s="4">
+        <v>8</v>
+      </c>
+      <c r="K646" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D647" s="3">
+        <v>195</v>
+      </c>
+      <c r="E647" s="3">
+        <v>169</v>
+      </c>
+      <c r="F647" s="3">
+        <v>1</v>
+      </c>
+      <c r="G647" s="3">
+        <f t="shared" si="78"/>
+        <v>169</v>
+      </c>
+      <c r="H647" s="3">
+        <f t="shared" si="79"/>
+        <v>194.35</v>
+      </c>
+      <c r="I647" s="3">
+        <f t="shared" si="80"/>
+        <v>26</v>
+      </c>
+      <c r="J647" s="4">
+        <v>1</v>
+      </c>
+      <c r="K647" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D648" s="3">
+        <v>76</v>
+      </c>
+      <c r="E648" s="3">
+        <v>199</v>
+      </c>
+      <c r="F648" s="3">
+        <v>3</v>
+      </c>
+      <c r="G648" s="3">
+        <f t="shared" ref="G648:G654" si="81">E648/F648</f>
+        <v>66.333333333333329</v>
+      </c>
+      <c r="H648" s="3">
+        <f t="shared" ref="H648:H654" si="82">G648*1.15</f>
+        <v>76.283333333333317</v>
+      </c>
+      <c r="I648" s="3">
+        <f t="shared" ref="I648:I654" si="83">D648-G648</f>
+        <v>9.6666666666666714</v>
+      </c>
+      <c r="J648" s="4">
+        <v>3</v>
+      </c>
+      <c r="K648" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D649" s="3">
+        <v>10</v>
+      </c>
+      <c r="E649" s="3">
+        <v>195</v>
+      </c>
+      <c r="F649" s="3">
+        <v>24</v>
+      </c>
+      <c r="G649" s="3">
+        <f t="shared" si="81"/>
+        <v>8.125</v>
+      </c>
+      <c r="H649" s="3">
+        <f t="shared" si="82"/>
+        <v>9.34375</v>
+      </c>
+      <c r="I649" s="3">
+        <f t="shared" si="83"/>
+        <v>1.875</v>
+      </c>
+      <c r="J649" s="4">
+        <v>24</v>
+      </c>
+      <c r="K649" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D650" s="3">
+        <v>7</v>
+      </c>
+      <c r="E650" s="3">
+        <v>61</v>
+      </c>
+      <c r="F650" s="3">
+        <v>10</v>
+      </c>
+      <c r="G650" s="3">
+        <f t="shared" si="81"/>
+        <v>6.1</v>
+      </c>
+      <c r="H650" s="3">
+        <f t="shared" si="82"/>
+        <v>7.0149999999999988</v>
+      </c>
+      <c r="I650" s="3">
+        <f t="shared" si="83"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="J650" s="4">
+        <v>0</v>
+      </c>
+      <c r="K650" s="10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D651" s="3">
+        <v>35</v>
+      </c>
+      <c r="E651" s="3">
+        <v>30</v>
+      </c>
+      <c r="F651" s="3">
+        <v>1</v>
+      </c>
+      <c r="G651" s="3">
+        <f t="shared" si="81"/>
+        <v>30</v>
+      </c>
+      <c r="H651" s="3">
+        <f t="shared" si="82"/>
+        <v>34.5</v>
+      </c>
+      <c r="I651" s="3">
+        <f t="shared" si="83"/>
+        <v>5</v>
+      </c>
+      <c r="J651" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K651" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D652" s="3">
+        <v>12</v>
+      </c>
+      <c r="E652" s="3">
+        <v>365</v>
+      </c>
+      <c r="F652" s="3">
+        <v>36</v>
+      </c>
+      <c r="G652" s="3">
+        <f t="shared" si="81"/>
+        <v>10.138888888888889</v>
+      </c>
+      <c r="H652" s="3">
+        <f t="shared" si="82"/>
+        <v>11.659722222222221</v>
+      </c>
+      <c r="I652" s="3">
+        <f t="shared" si="83"/>
+        <v>1.8611111111111107</v>
+      </c>
+      <c r="J652" s="4">
+        <v>0</v>
+      </c>
+      <c r="K652" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D653" s="3">
+        <v>200</v>
+      </c>
+      <c r="E653" s="3">
+        <v>170</v>
+      </c>
+      <c r="F653" s="3">
+        <v>1</v>
+      </c>
+      <c r="G653" s="3">
+        <f t="shared" si="81"/>
+        <v>170</v>
+      </c>
+      <c r="H653" s="3">
+        <f t="shared" si="82"/>
+        <v>195.49999999999997</v>
+      </c>
+      <c r="I653" s="3">
+        <f t="shared" si="83"/>
+        <v>30</v>
+      </c>
+      <c r="J653" s="4">
+        <v>0</v>
+      </c>
+      <c r="K653" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D654" s="3">
+        <v>5</v>
+      </c>
+      <c r="E654" s="3">
+        <v>48</v>
+      </c>
+      <c r="F654" s="3">
+        <v>12</v>
+      </c>
+      <c r="G654" s="3">
+        <f t="shared" si="81"/>
+        <v>4</v>
+      </c>
+      <c r="H654" s="3">
+        <f t="shared" si="82"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I654" s="3">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="J654">
+        <v>0</v>
+      </c>
+      <c r="K654" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D655" s="3">
+        <v>13</v>
+      </c>
+      <c r="E655" s="3">
+        <v>11</v>
+      </c>
+      <c r="F655" s="3">
+        <v>1</v>
+      </c>
+      <c r="G655" s="3">
+        <f t="shared" ref="G655:G658" si="84">E655/F655</f>
+        <v>11</v>
+      </c>
+      <c r="H655" s="3">
+        <f t="shared" ref="H655:H658" si="85">G655*1.15</f>
+        <v>12.649999999999999</v>
+      </c>
+      <c r="I655" s="3">
+        <f t="shared" ref="I655:I658" si="86">D655-G655</f>
+        <v>2</v>
+      </c>
+      <c r="J655" s="4">
+        <v>0</v>
+      </c>
+      <c r="K655" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D656" s="3">
+        <v>11</v>
+      </c>
+      <c r="E656" s="3">
+        <v>55</v>
+      </c>
+      <c r="F656" s="3">
+        <v>6</v>
+      </c>
+      <c r="G656" s="3">
+        <f t="shared" si="84"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="H656" s="3">
+        <f t="shared" si="85"/>
+        <v>10.541666666666664</v>
+      </c>
+      <c r="I656" s="3">
+        <f t="shared" si="86"/>
+        <v>1.8333333333333339</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+      <c r="K656" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D657" s="3">
+        <v>56</v>
+      </c>
+      <c r="E657" s="3">
+        <v>146</v>
+      </c>
+      <c r="F657" s="3">
+        <v>3</v>
+      </c>
+      <c r="G657" s="3">
+        <f t="shared" si="84"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="H657" s="3">
+        <f t="shared" si="85"/>
+        <v>55.966666666666661</v>
+      </c>
+      <c r="I657" s="3">
+        <f t="shared" si="86"/>
+        <v>7.3333333333333357</v>
+      </c>
+      <c r="J657" s="4">
+        <v>6</v>
+      </c>
+      <c r="K657" s="10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D658" s="3">
+        <v>34</v>
+      </c>
+      <c r="E658" s="3">
+        <v>29</v>
+      </c>
+      <c r="F658" s="3">
+        <v>1</v>
+      </c>
+      <c r="G658" s="3">
+        <f t="shared" si="84"/>
+        <v>29</v>
+      </c>
+      <c r="H658" s="3">
+        <f t="shared" si="85"/>
+        <v>33.349999999999994</v>
+      </c>
+      <c r="I658" s="3">
+        <f t="shared" si="86"/>
+        <v>5</v>
+      </c>
+      <c r="J658" s="4">
+        <v>1</v>
+      </c>
+      <c r="K658" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D659" s="3">
+        <v>10</v>
+      </c>
+      <c r="E659" s="3">
+        <v>21</v>
+      </c>
+      <c r="F659" s="3">
+        <v>3</v>
+      </c>
+      <c r="G659" s="3">
+        <f t="shared" ref="G659:G661" si="87">E659/F659</f>
+        <v>7</v>
+      </c>
+      <c r="H659" s="3">
+        <f t="shared" ref="H659:H661" si="88">G659*1.15</f>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="I659" s="3">
+        <f t="shared" ref="I659:I661" si="89">D659-G659</f>
+        <v>3</v>
+      </c>
+      <c r="J659" s="4">
+        <v>3</v>
+      </c>
+      <c r="K659" s="10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D660" s="3">
+        <v>20</v>
+      </c>
+      <c r="E660" s="3">
+        <v>103</v>
+      </c>
+      <c r="F660" s="3">
+        <v>6</v>
+      </c>
+      <c r="G660" s="3">
+        <f t="shared" si="87"/>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="H660" s="3">
+        <f t="shared" si="88"/>
+        <v>19.741666666666667</v>
+      </c>
+      <c r="I660" s="3">
+        <f t="shared" si="89"/>
+        <v>2.8333333333333321</v>
+      </c>
+      <c r="J660" s="4">
+        <v>0</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C661" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="D661" s="3">
+        <v>61</v>
+      </c>
+      <c r="E661" s="3">
+        <v>159</v>
+      </c>
+      <c r="F661" s="3">
+        <v>3</v>
+      </c>
+      <c r="G661" s="3">
+        <f t="shared" si="87"/>
+        <v>53</v>
+      </c>
+      <c r="H661" s="3">
+        <f t="shared" si="88"/>
+        <v>60.949999999999996</v>
+      </c>
+      <c r="I661" s="3">
+        <f t="shared" si="89"/>
+        <v>8</v>
+      </c>
+      <c r="J661" s="4">
+        <v>0</v>
+      </c>
+      <c r="K661" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C662" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="D662" s="3">
+        <v>25</v>
+      </c>
+      <c r="E662" s="3">
+        <v>22</v>
+      </c>
+      <c r="F662" s="3">
+        <v>1</v>
+      </c>
+      <c r="G662" s="3">
+        <f t="shared" ref="G662:G664" si="90">E662/F662</f>
+        <v>22</v>
+      </c>
+      <c r="H662" s="3">
+        <f t="shared" ref="H662:H664" si="91">G662*1.15</f>
+        <v>25.299999999999997</v>
+      </c>
+      <c r="I662" s="3">
+        <f t="shared" ref="I662:I664" si="92">D662-G662</f>
+        <v>3</v>
+      </c>
+      <c r="J662" s="4">
+        <v>0</v>
+      </c>
+      <c r="K662" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D663" s="3">
+        <v>20</v>
+      </c>
+      <c r="E663" s="3">
+        <v>96</v>
+      </c>
+      <c r="F663" s="3">
+        <v>6</v>
+      </c>
+      <c r="G663" s="3">
+        <f t="shared" si="90"/>
+        <v>16</v>
+      </c>
+      <c r="H663" s="3">
+        <f t="shared" si="91"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I663" s="3">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="J663" s="4">
+        <v>0</v>
+      </c>
+      <c r="K663" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D664" s="3">
+        <v>15</v>
+      </c>
+      <c r="E664" s="3">
+        <v>10</v>
+      </c>
+      <c r="F664" s="3">
+        <v>1</v>
+      </c>
+      <c r="G664" s="3">
+        <f t="shared" si="90"/>
+        <v>10</v>
+      </c>
+      <c r="H664" s="3">
+        <f t="shared" si="91"/>
+        <v>11.5</v>
+      </c>
+      <c r="I664" s="3">
+        <f t="shared" si="92"/>
+        <v>5</v>
+      </c>
+      <c r="J664" s="4">
+        <v>0</v>
+      </c>
+      <c r="K664" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D665" s="3">
+        <v>12</v>
+      </c>
+      <c r="E665" s="3">
+        <v>10</v>
+      </c>
+      <c r="F665" s="3">
+        <v>1</v>
+      </c>
+      <c r="G665" s="3">
+        <f t="shared" ref="G665" si="93">E665/F665</f>
+        <v>10</v>
+      </c>
+      <c r="H665" s="3">
+        <f t="shared" ref="H665" si="94">G665*1.15</f>
+        <v>11.5</v>
+      </c>
+      <c r="I665" s="3">
+        <f t="shared" ref="I665" si="95">D665-G665</f>
+        <v>2</v>
+      </c>
+      <c r="J665" s="4">
+        <v>0</v>
+      </c>
+      <c r="K665" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D666" s="3">
+        <v>45</v>
+      </c>
+      <c r="E666" s="3">
+        <v>40</v>
+      </c>
+      <c r="F666" s="3">
+        <v>1</v>
+      </c>
+      <c r="G666" s="3">
+        <f t="shared" ref="G666" si="96">E666/F666</f>
+        <v>40</v>
+      </c>
+      <c r="H666" s="3">
+        <f t="shared" ref="H666" si="97">G666*1.15</f>
+        <v>46</v>
+      </c>
+      <c r="I666" s="3">
+        <f t="shared" ref="I666" si="98">D666-G666</f>
+        <v>5</v>
+      </c>
+      <c r="J666" s="4">
+        <v>0</v>
+      </c>
+      <c r="K666" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D667" s="3">
+        <v>25</v>
+      </c>
+      <c r="E667" s="3">
+        <v>20</v>
+      </c>
+      <c r="F667" s="3">
+        <v>1</v>
+      </c>
+      <c r="G667" s="3">
+        <f t="shared" ref="G667:G670" si="99">E667/F667</f>
+        <v>20</v>
+      </c>
+      <c r="H667" s="3">
+        <f t="shared" ref="H667:H670" si="100">G667*1.15</f>
+        <v>23</v>
+      </c>
+      <c r="I667" s="3">
+        <f t="shared" ref="I667:I670" si="101">D667-G667</f>
+        <v>5</v>
+      </c>
+      <c r="J667" s="4">
+        <v>0</v>
+      </c>
+      <c r="K667" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D668" s="3">
+        <v>6</v>
+      </c>
+      <c r="E668" s="3">
+        <v>120</v>
+      </c>
+      <c r="F668" s="3">
+        <v>24</v>
+      </c>
+      <c r="G668" s="3">
+        <f t="shared" si="99"/>
+        <v>5</v>
+      </c>
+      <c r="H668" s="3">
+        <f t="shared" si="100"/>
+        <v>5.75</v>
+      </c>
+      <c r="I668" s="3">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="J668" s="4">
+        <v>0</v>
+      </c>
+      <c r="K668" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D669" s="3">
+        <v>7</v>
+      </c>
+      <c r="E669" s="3">
+        <v>168</v>
+      </c>
+      <c r="F669" s="3">
+        <v>30</v>
+      </c>
+      <c r="G669" s="3">
+        <f t="shared" si="99"/>
+        <v>5.6</v>
+      </c>
+      <c r="H669" s="3">
+        <f t="shared" si="100"/>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="I669" s="3">
+        <f t="shared" si="101"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="J669" s="4">
+        <v>0</v>
+      </c>
+      <c r="K669" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D670" s="3">
+        <v>35</v>
+      </c>
+      <c r="E670" s="3">
+        <v>30</v>
+      </c>
+      <c r="F670" s="3">
+        <v>1</v>
+      </c>
+      <c r="G670" s="3">
+        <f t="shared" si="99"/>
+        <v>30</v>
+      </c>
+      <c r="H670" s="3">
+        <f t="shared" si="100"/>
+        <v>34.5</v>
+      </c>
+      <c r="I670" s="3">
+        <f t="shared" si="101"/>
+        <v>5</v>
+      </c>
+      <c r="J670" s="4">
+        <v>0</v>
+      </c>
+      <c r="K670" s="5"/>
+    </row>
+    <row r="671" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D671" s="3">
+        <v>40</v>
+      </c>
+      <c r="E671" s="3">
+        <v>35</v>
+      </c>
+      <c r="F671" s="3">
+        <v>1</v>
+      </c>
+      <c r="G671" s="3">
+        <f t="shared" ref="G671" si="102">E671/F671</f>
+        <v>35</v>
+      </c>
+      <c r="H671" s="3">
+        <f t="shared" ref="H671" si="103">G671*1.15</f>
+        <v>40.25</v>
+      </c>
+      <c r="I671" s="3">
+        <f t="shared" ref="I671" si="104">D671-G671</f>
+        <v>5</v>
+      </c>
+      <c r="J671" s="4">
+        <v>0</v>
+      </c>
+      <c r="K671" s="5"/>
+    </row>
+    <row r="672" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D672" s="3">
+        <v>35</v>
+      </c>
+      <c r="E672" s="3">
+        <v>30</v>
+      </c>
+      <c r="F672" s="3">
+        <v>1</v>
+      </c>
+      <c r="G672" s="3">
+        <f t="shared" ref="G672:G675" si="105">E672/F672</f>
+        <v>30</v>
+      </c>
+      <c r="H672" s="3">
+        <f t="shared" ref="H672:H675" si="106">G672*1.15</f>
+        <v>34.5</v>
+      </c>
+      <c r="I672" s="3">
+        <f t="shared" ref="I672:I675" si="107">D672-G672</f>
+        <v>5</v>
+      </c>
+      <c r="J672" s="4">
+        <v>0</v>
+      </c>
       <c r="K672" s="10"/>
     </row>
-    <row r="673" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C673" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="D673" s="3">
+        <v>115</v>
+      </c>
+      <c r="E673" s="3">
+        <v>99</v>
+      </c>
+      <c r="F673" s="3">
+        <v>1</v>
+      </c>
+      <c r="G673" s="3">
+        <f t="shared" si="105"/>
+        <v>99</v>
+      </c>
+      <c r="H673" s="3">
+        <f t="shared" si="106"/>
+        <v>113.85</v>
+      </c>
+      <c r="I673" s="3">
+        <f t="shared" si="107"/>
+        <v>16</v>
+      </c>
+      <c r="J673" s="4">
+        <v>0</v>
+      </c>
       <c r="K673" s="10"/>
     </row>
-    <row r="674" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K674" s="10"/>
-    </row>
-    <row r="675" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K675" s="10"/>
-    </row>
-    <row r="676" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K676" s="10"/>
-    </row>
-    <row r="677" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K677" s="10"/>
-    </row>
-    <row r="678" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K678" s="10"/>
-    </row>
-    <row r="679" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K679" s="10"/>
-    </row>
-    <row r="680" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K680" s="10"/>
-    </row>
-    <row r="681" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K681" s="10"/>
-    </row>
-    <row r="682" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K682" s="10"/>
-    </row>
-    <row r="683" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K683" s="10"/>
-    </row>
-    <row r="684" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K684" s="10"/>
-    </row>
-    <row r="685" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K685" s="10"/>
-    </row>
-    <row r="686" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K686" s="10"/>
-    </row>
-    <row r="687" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K687" s="10"/>
-    </row>
-    <row r="688" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K688" s="10"/>
-    </row>
-    <row r="689" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K689" s="10"/>
-    </row>
-    <row r="690" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K690" s="10"/>
-    </row>
-    <row r="691" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K691" s="10"/>
-    </row>
-    <row r="692" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K692" s="10"/>
-    </row>
-    <row r="693" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K693" s="10"/>
-    </row>
-    <row r="694" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K694" s="10"/>
-    </row>
-    <row r="695" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K695" s="10"/>
-    </row>
-    <row r="696" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K696" s="10"/>
-    </row>
-    <row r="697" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D674" s="3">
+        <v>150</v>
+      </c>
+      <c r="E674" s="3">
+        <v>129</v>
+      </c>
+      <c r="F674" s="3">
+        <v>24</v>
+      </c>
+      <c r="G674" s="3">
+        <f t="shared" si="105"/>
+        <v>5.375</v>
+      </c>
+      <c r="H674" s="3">
+        <f t="shared" si="106"/>
+        <v>6.1812499999999995</v>
+      </c>
+      <c r="I674" s="3">
+        <f t="shared" si="107"/>
+        <v>144.625</v>
+      </c>
+      <c r="J674" s="4">
+        <v>0</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D675" s="3">
+        <v>25</v>
+      </c>
+      <c r="E675" s="3">
+        <v>20</v>
+      </c>
+      <c r="F675" s="3">
+        <v>1</v>
+      </c>
+      <c r="G675" s="3">
+        <f t="shared" si="105"/>
+        <v>20</v>
+      </c>
+      <c r="H675" s="3">
+        <f t="shared" si="106"/>
+        <v>23</v>
+      </c>
+      <c r="I675" s="3">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="J675" s="4">
+        <v>0</v>
+      </c>
+      <c r="K675" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D676" s="3">
+        <v>25</v>
+      </c>
+      <c r="E676" s="3">
+        <v>20</v>
+      </c>
+      <c r="F676" s="3">
+        <v>1</v>
+      </c>
+      <c r="G676" s="3">
+        <f t="shared" ref="G676" si="108">E676/F676</f>
+        <v>20</v>
+      </c>
+      <c r="H676" s="3">
+        <f t="shared" ref="H676" si="109">G676*1.15</f>
+        <v>23</v>
+      </c>
+      <c r="I676" s="3">
+        <f t="shared" ref="I676" si="110">D676-G676</f>
+        <v>5</v>
+      </c>
+      <c r="J676" s="4">
+        <v>0</v>
+      </c>
+      <c r="K676" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D677" s="3">
+        <v>20</v>
+      </c>
+      <c r="E677" s="3">
+        <v>15</v>
+      </c>
+      <c r="F677" s="3">
+        <v>1</v>
+      </c>
+      <c r="G677" s="3">
+        <f t="shared" ref="G677" si="111">E677/F677</f>
+        <v>15</v>
+      </c>
+      <c r="H677" s="3">
+        <f t="shared" ref="H677" si="112">G677*1.15</f>
+        <v>17.25</v>
+      </c>
+      <c r="I677" s="3">
+        <f t="shared" ref="I677" si="113">D677-G677</f>
+        <v>5</v>
+      </c>
+      <c r="J677" s="4">
+        <v>0</v>
+      </c>
+      <c r="K677" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D678" s="3">
+        <v>25</v>
+      </c>
+      <c r="E678" s="3">
+        <v>20</v>
+      </c>
+      <c r="F678" s="3">
+        <v>1</v>
+      </c>
+      <c r="G678" s="3">
+        <f t="shared" ref="G678:G683" si="114">E678/F678</f>
+        <v>20</v>
+      </c>
+      <c r="H678" s="3">
+        <f t="shared" ref="H678:H683" si="115">G678*1.15</f>
+        <v>23</v>
+      </c>
+      <c r="I678" s="3">
+        <f t="shared" ref="I678:I683" si="116">D678-G678</f>
+        <v>5</v>
+      </c>
+      <c r="J678" s="4">
+        <v>0</v>
+      </c>
+      <c r="K678" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D679" s="3">
+        <v>20</v>
+      </c>
+      <c r="E679" s="3">
+        <v>15</v>
+      </c>
+      <c r="F679" s="3">
+        <v>1</v>
+      </c>
+      <c r="G679" s="3">
+        <f t="shared" si="114"/>
+        <v>15</v>
+      </c>
+      <c r="H679" s="3">
+        <f t="shared" si="115"/>
+        <v>17.25</v>
+      </c>
+      <c r="I679" s="3">
+        <f t="shared" si="116"/>
+        <v>5</v>
+      </c>
+      <c r="J679" s="4">
+        <v>0</v>
+      </c>
+      <c r="K679" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D680" s="3">
+        <v>115</v>
+      </c>
+      <c r="E680" s="3">
+        <v>99</v>
+      </c>
+      <c r="F680" s="3">
+        <v>1</v>
+      </c>
+      <c r="G680" s="3">
+        <f t="shared" si="114"/>
+        <v>99</v>
+      </c>
+      <c r="H680" s="3">
+        <f t="shared" si="115"/>
+        <v>113.85</v>
+      </c>
+      <c r="I680" s="3">
+        <f t="shared" si="116"/>
+        <v>16</v>
+      </c>
+      <c r="J680" s="4">
+        <v>3</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D681" s="3">
+        <v>311</v>
+      </c>
+      <c r="E681" s="3">
+        <v>270</v>
+      </c>
+      <c r="F681" s="3">
+        <v>1</v>
+      </c>
+      <c r="G681" s="3">
+        <f t="shared" si="114"/>
+        <v>270</v>
+      </c>
+      <c r="H681" s="3">
+        <f t="shared" si="115"/>
+        <v>310.5</v>
+      </c>
+      <c r="I681" s="3">
+        <f t="shared" si="116"/>
+        <v>41</v>
+      </c>
+      <c r="J681" s="4">
+        <v>0</v>
+      </c>
+      <c r="K681" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D682" s="3">
+        <v>31</v>
+      </c>
+      <c r="E682" s="3">
+        <v>80</v>
+      </c>
+      <c r="F682" s="3">
+        <v>3</v>
+      </c>
+      <c r="G682" s="3">
+        <f t="shared" si="114"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H682" s="3">
+        <f t="shared" si="115"/>
+        <v>30.666666666666664</v>
+      </c>
+      <c r="I682" s="3">
+        <f t="shared" si="116"/>
+        <v>4.3333333333333321</v>
+      </c>
+      <c r="J682" s="4">
+        <v>0</v>
+      </c>
+      <c r="K682" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D683" s="3">
+        <v>25</v>
+      </c>
+      <c r="E683" s="3">
+        <v>22</v>
+      </c>
+      <c r="F683" s="3">
+        <v>1</v>
+      </c>
+      <c r="G683" s="3">
+        <f t="shared" si="114"/>
+        <v>22</v>
+      </c>
+      <c r="H683" s="3">
+        <f t="shared" si="115"/>
+        <v>25.299999999999997</v>
+      </c>
+      <c r="I683" s="3">
+        <f t="shared" si="116"/>
+        <v>3</v>
+      </c>
+      <c r="J683" s="4">
+        <v>0</v>
+      </c>
+      <c r="K683" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D684" s="3">
+        <v>33</v>
+      </c>
+      <c r="E684" s="3">
+        <v>116</v>
+      </c>
+      <c r="F684" s="3">
+        <v>4</v>
+      </c>
+      <c r="G684" s="3">
+        <f t="shared" ref="G684:G686" si="117">E684/F684</f>
+        <v>29</v>
+      </c>
+      <c r="H684" s="3">
+        <f t="shared" ref="H684:H686" si="118">G684*1.15</f>
+        <v>33.349999999999994</v>
+      </c>
+      <c r="I684" s="3">
+        <f t="shared" ref="I684:I686" si="119">D684-G684</f>
+        <v>4</v>
+      </c>
+      <c r="J684" s="4">
+        <v>0</v>
+      </c>
+      <c r="K684" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D685" s="3">
+        <v>7</v>
+      </c>
+      <c r="E685" s="3">
+        <v>69.5</v>
+      </c>
+      <c r="F685" s="3">
+        <v>12</v>
+      </c>
+      <c r="G685" s="3">
+        <f t="shared" si="117"/>
+        <v>5.791666666666667</v>
+      </c>
+      <c r="H685" s="3">
+        <f t="shared" si="118"/>
+        <v>6.6604166666666664</v>
+      </c>
+      <c r="I685" s="3">
+        <f t="shared" si="119"/>
+        <v>1.208333333333333</v>
+      </c>
+      <c r="J685" s="4">
+        <v>0</v>
+      </c>
+      <c r="K685" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D686" s="3">
+        <v>235</v>
+      </c>
+      <c r="E686" s="3">
+        <v>203</v>
+      </c>
+      <c r="F686" s="3">
+        <v>1</v>
+      </c>
+      <c r="G686" s="3">
+        <f t="shared" si="117"/>
+        <v>203</v>
+      </c>
+      <c r="H686" s="3">
+        <f t="shared" si="118"/>
+        <v>233.45</v>
+      </c>
+      <c r="I686" s="3">
+        <f t="shared" si="119"/>
+        <v>32</v>
+      </c>
+      <c r="J686" s="4">
+        <v>3</v>
+      </c>
+      <c r="K686" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D687" s="3">
+        <v>210</v>
+      </c>
+      <c r="E687" s="3">
+        <v>179</v>
+      </c>
+      <c r="F687" s="3">
+        <v>1</v>
+      </c>
+      <c r="G687" s="3">
+        <f t="shared" ref="G687:G690" si="120">E687/F687</f>
+        <v>179</v>
+      </c>
+      <c r="H687" s="3">
+        <f t="shared" ref="H687:H690" si="121">G687*1.15</f>
+        <v>205.85</v>
+      </c>
+      <c r="I687" s="3">
+        <f t="shared" ref="I687:I690" si="122">D687-G687</f>
+        <v>31</v>
+      </c>
+      <c r="J687" s="4">
+        <v>3</v>
+      </c>
+      <c r="K687" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D688" s="3">
+        <v>15</v>
+      </c>
+      <c r="E688" s="3">
+        <v>117</v>
+      </c>
+      <c r="F688" s="3">
+        <v>10</v>
+      </c>
+      <c r="G688" s="3">
+        <f t="shared" si="120"/>
+        <v>11.7</v>
+      </c>
+      <c r="H688" s="3">
+        <f t="shared" si="121"/>
+        <v>13.454999999999998</v>
+      </c>
+      <c r="I688" s="3">
+        <f t="shared" si="122"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="J688" s="4">
+        <v>1</v>
+      </c>
+      <c r="K688" s="10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D689" s="3">
+        <v>45</v>
+      </c>
+      <c r="E689" s="3">
+        <v>40</v>
+      </c>
+      <c r="F689" s="3">
+        <v>1</v>
+      </c>
+      <c r="G689" s="3">
+        <f t="shared" si="120"/>
+        <v>40</v>
+      </c>
+      <c r="H689" s="3">
+        <f t="shared" si="121"/>
+        <v>46</v>
+      </c>
+      <c r="I689" s="3">
+        <f t="shared" si="122"/>
+        <v>5</v>
+      </c>
+      <c r="J689" s="4">
+        <v>4</v>
+      </c>
+      <c r="K689" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="D690" s="3">
+        <v>35</v>
+      </c>
+      <c r="E690" s="3">
+        <v>89</v>
+      </c>
+      <c r="F690" s="3">
+        <v>3</v>
+      </c>
+      <c r="G690" s="3">
+        <f t="shared" si="120"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="H690" s="3">
+        <f t="shared" si="121"/>
+        <v>34.116666666666667</v>
+      </c>
+      <c r="I690" s="3">
+        <f t="shared" si="122"/>
+        <v>5.3333333333333321</v>
+      </c>
+      <c r="J690" s="4">
+        <v>0</v>
+      </c>
+      <c r="K690" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D691" s="3">
+        <v>45</v>
+      </c>
+      <c r="E691" s="3">
+        <v>40</v>
+      </c>
+      <c r="F691" s="3">
+        <v>1</v>
+      </c>
+      <c r="G691" s="3">
+        <f t="shared" ref="G691:G694" si="123">E691/F691</f>
+        <v>40</v>
+      </c>
+      <c r="H691" s="3">
+        <f t="shared" ref="H691:H694" si="124">G691*1.15</f>
+        <v>46</v>
+      </c>
+      <c r="I691" s="3">
+        <f t="shared" ref="I691:I694" si="125">D691-G691</f>
+        <v>5</v>
+      </c>
+      <c r="J691" s="4">
+        <v>0</v>
+      </c>
+      <c r="K691" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D692" s="3">
+        <v>10</v>
+      </c>
+      <c r="E692" s="3">
+        <v>80</v>
+      </c>
+      <c r="F692" s="3">
+        <v>10</v>
+      </c>
+      <c r="G692" s="3">
+        <f t="shared" si="123"/>
+        <v>8</v>
+      </c>
+      <c r="H692" s="3">
+        <f t="shared" si="124"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I692" s="3">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+      <c r="J692" s="4">
+        <v>0</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D693" s="3">
+        <v>16</v>
+      </c>
+      <c r="E693" s="3">
+        <v>54</v>
+      </c>
+      <c r="F693" s="3">
+        <v>4</v>
+      </c>
+      <c r="G693" s="3">
+        <f t="shared" si="123"/>
+        <v>13.5</v>
+      </c>
+      <c r="H693" s="3">
+        <f t="shared" si="124"/>
+        <v>15.524999999999999</v>
+      </c>
+      <c r="I693" s="3">
+        <f t="shared" si="125"/>
+        <v>2.5</v>
+      </c>
+      <c r="J693" s="4">
+        <v>0</v>
+      </c>
+      <c r="K693" s="10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D694" s="3">
+        <v>50</v>
+      </c>
+      <c r="E694" s="3">
+        <v>42</v>
+      </c>
+      <c r="F694" s="3">
+        <v>1</v>
+      </c>
+      <c r="G694" s="3">
+        <f t="shared" si="123"/>
+        <v>42</v>
+      </c>
+      <c r="H694" s="3">
+        <f t="shared" si="124"/>
+        <v>48.3</v>
+      </c>
+      <c r="I694" s="3">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="J694" s="4">
+        <v>36</v>
+      </c>
+      <c r="K694" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D695" s="3">
+        <v>5</v>
+      </c>
+      <c r="E695" s="3">
+        <v>4</v>
+      </c>
+      <c r="F695" s="3">
+        <v>1</v>
+      </c>
+      <c r="G695" s="3">
+        <f t="shared" ref="G695:G696" si="126">E695/F695</f>
+        <v>4</v>
+      </c>
+      <c r="H695" s="3">
+        <f t="shared" ref="H695:H696" si="127">G695*1.15</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I695" s="3">
+        <f t="shared" ref="I695:I696" si="128">D695-G695</f>
+        <v>1</v>
+      </c>
+      <c r="J695" s="4">
+        <v>0</v>
+      </c>
+      <c r="K695" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D696" s="3">
+        <v>15</v>
+      </c>
+      <c r="E696" s="3">
+        <v>1</v>
+      </c>
+      <c r="F696" s="3">
+        <v>1</v>
+      </c>
+      <c r="G696" s="3">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="H696" s="3">
+        <f t="shared" si="127"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I696" s="3">
+        <f t="shared" si="128"/>
+        <v>14</v>
+      </c>
+      <c r="J696">
+        <v>0</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K697" s="10"/>
     </row>
-    <row r="698" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K698" s="10"/>
     </row>
-    <row r="699" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K699" s="10"/>
     </row>
-    <row r="700" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K700" s="10"/>
     </row>
-    <row r="701" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K701" s="10"/>
     </row>
-    <row r="702" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K702" s="10"/>
     </row>
-    <row r="703" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K703" s="10"/>
     </row>
-    <row r="704" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K704" s="10"/>
     </row>
     <row r="705" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -28534,11 +30847,8 @@
     <row r="986" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K986" s="10"/>
     </row>
-    <row r="987" spans="11:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K987" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K604" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:K691" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A398:K602">
       <sortCondition ref="C1:C601"/>
     </sortState>
@@ -28553,10 +30863,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28702,10 +31012,10 @@
       <c r="E15" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -29021,6 +31331,292 @@
       </c>
       <c r="C49">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>757</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>592</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>757</v>
+      </c>
+      <c r="B55">
+        <v>100</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>566</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>757</v>
+      </c>
+      <c r="B58">
+        <v>100</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B59">
+        <v>300</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>566</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>566</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>572</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>568</v>
+      </c>
+      <c r="B64">
+        <v>300</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>757</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>858</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>859</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>566</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+      <c r="C70" s="27">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>861</v>
+      </c>
+      <c r="B71">
+        <v>300</v>
+      </c>
+      <c r="C71" s="27">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>866</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72" s="27">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>572</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+      <c r="C74" s="27">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>566</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75" s="27">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>572</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+      <c r="C77" s="27">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>565</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78" s="27">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79">
+        <v>300</v>
+      </c>
+      <c r="C79" s="27">
+        <v>45155</v>
       </c>
     </row>
   </sheetData>
@@ -29036,10 +31632,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:C54"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29341,34 +31937,309 @@
         <v>778</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C56" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="28" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="C59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C60" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="C64" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C65" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="28" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="28" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>830</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="C69" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="C70" s="27">
+        <v>45089</v>
+      </c>
+      <c r="D70" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="28" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="29" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>857</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>874</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C75" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>867</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="C76" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="13" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="13" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="13" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="13" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="C82" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="13" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="C85" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="C86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>894</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="13" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>913</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="13" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="13" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -29383,7 +32254,9 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="980" count="2892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="984" count="2898">
   <si>
     <t>location</t>
   </si>
@@ -2973,6 +2973,18 @@
   </si>
   <si>
     <t>เพิ่มค่าแผ่น 10บ</t>
+  </si>
+  <si>
+    <t>รังนก</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>ยศยกยอด 100</t>
+  </si>
+  <si>
+    <t>เพชรยกยอด /60</t>
   </si>
 </sst>
 </file>
@@ -3495,7 +3507,7 @@
   </sheetPr>
   <dimension ref="A1:N986"/>
   <sheetViews>
-    <sheetView topLeftCell="A697" zoomScale="115" view="normal" workbookViewId="0">
+    <sheetView topLeftCell="A697" zoomScale="115" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A720" sqref="A720:K720"/>
     </sheetView>
   </sheetViews>
@@ -31177,18 +31189,43 @@
         <v>940</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="14.4">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-      <c r="C721" s="1"/>
-      <c r="D721" s="3"/>
-      <c r="E721" s="3"/>
-      <c r="F721" s="3"/>
-      <c r="G721" s="3"/>
-      <c r="H721" s="3"/>
-      <c r="I721" s="3"/>
-      <c r="J721" s="4"/>
-      <c r="K721" s="5"/>
+    <row r="721" spans="1:11">
+      <c r="A721" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D721" s="3">
+        <v>45</v>
+      </c>
+      <c r="E721" s="3">
+        <v>40</v>
+      </c>
+      <c r="F721" s="3">
+        <v>1</v>
+      </c>
+      <c r="G721" s="3">
+        <f ca="1">E721/F721</f>
+        <v>40</v>
+      </c>
+      <c r="H721" s="3">
+        <f ca="1">G721*1.15</f>
+        <v>46</v>
+      </c>
+      <c r="I721" s="3">
+        <f ca="1">D721-G721</f>
+        <v>5</v>
+      </c>
+      <c r="J721" s="4">
+        <v>24</v>
+      </c>
+      <c r="K721" s="2" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="722" spans="11:11" ht="13.8">
       <c r="K722" s="10"/>
@@ -32005,7 +32042,7 @@
   </sheetPr>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" view="normal" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A80" view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
@@ -33680,12 +33717,20 @@
         <v>979</v>
       </c>
     </row>
-    <row r="111" spans="1:2" customHeight="1">
+    <row r="111" spans="1:6" customHeight="1">
       <c r="A111" s="26">
         <v>45185</v>
       </c>
       <c r="B111" s="32" t="s">
         <v>970</v>
+      </c>
+      <c r="F111" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" ht="15">
+      <c r="F112" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="113" spans="1:2" customHeight="1">

--- a/Archive/ราคาสหกรณ์.xlsx
+++ b/Archive/ราคาสหกรณ์.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1095238\source\repos\myCashier\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9DD4F-D6FB-4638-9766-F56C3D2459F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA1A1E-5E43-4430-97B9-4E34D5D5E6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="780" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ของ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="1030">
   <si>
     <t>location</t>
   </si>
@@ -3051,6 +3051,84 @@
   </si>
   <si>
     <t>สหกรณ์ (30/9 ถึง 13/10):</t>
+  </si>
+  <si>
+    <t>สุรา 40</t>
+  </si>
+  <si>
+    <t>Ready * 10</t>
+  </si>
+  <si>
+    <t>Schwepp 330ml * 24</t>
+  </si>
+  <si>
+    <t>ข้าวโพดคั่ว</t>
+  </si>
+  <si>
+    <t>ปลาทูทอด 35</t>
+  </si>
+  <si>
+    <t>ข้าวต้ม คนอร์ * 6</t>
+  </si>
+  <si>
+    <t>ของใคร เยอะ แม่</t>
+  </si>
+  <si>
+    <t>ของใคร แม่</t>
+  </si>
+  <si>
+    <t>ของใคร ช้าง พ่อ</t>
+  </si>
+  <si>
+    <t>สหกรณ์ (14/10 ถึง 27/10):</t>
+  </si>
+  <si>
+    <t>อ๊อด ข้าวหอมมะลิ คิด 235</t>
+  </si>
+  <si>
+    <t>กัน ข้าวเสาไห้ 35% ราคา 235</t>
+  </si>
+  <si>
+    <t>เพชรยกยอดเบิกจาก 260 เป็น 360</t>
+  </si>
+  <si>
+    <t>ดอกรัก กับ รัตน์ หัก 14</t>
+  </si>
+  <si>
+    <t>ของใคร พ่อ 2</t>
+  </si>
+  <si>
+    <t>ของใคร พ่อ 4</t>
+  </si>
+  <si>
+    <t>ของใคร แม่ 2</t>
+  </si>
+  <si>
+    <t>ของใคร แม่ 1</t>
+  </si>
+  <si>
+    <t>ของใคร  จอย</t>
+  </si>
+  <si>
+    <t>ปลาทู 25</t>
+  </si>
+  <si>
+    <t>เบิกเงิน ตัด (15/10 ถึง 28/10):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-26/10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-24/10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">เต้ย </t>
+  </si>
+  <si>
+    <t xml:space="preserve">มล </t>
+  </si>
+  <si>
+    <t>หักเงิน (14/10 ถึง 27/10) - ไม่รวมอยู่ในค่าสหกรณ์ หักเสาร์นั้น:</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3140,7 @@
     <numFmt numFmtId="165" formatCode="d/m"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3166,6 +3244,19 @@
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3238,7 +3329,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3304,6 +3395,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -3529,8 +3636,8 @@
   </sheetPr>
   <dimension ref="A1:N986"/>
   <sheetViews>
-    <sheetView topLeftCell="A705" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A726" sqref="A726:K726"/>
+    <sheetView topLeftCell="A615" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C628" sqref="C628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14345,22 +14452,22 @@
         <v>20</v>
       </c>
       <c r="E276" s="3">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="F276" s="3">
         <v>6</v>
       </c>
       <c r="G276" s="3">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="H276" s="3">
         <f t="shared" si="13"/>
-        <v>0.19166666666666665</v>
+        <v>18.208333333333332</v>
       </c>
       <c r="I276" s="3">
         <f t="shared" si="14"/>
-        <v>19.833333333333332</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="J276" s="4">
         <v>6</v>
@@ -30661,11 +30768,11 @@
         <v>1</v>
       </c>
       <c r="G706" s="3">
-        <f t="shared" ref="G706:G769" si="33">E706/F706</f>
+        <f t="shared" ref="G706:G722" si="33">E706/F706</f>
         <v>8</v>
       </c>
       <c r="H706" s="3">
-        <f t="shared" ref="H706:H769" si="34">G706*1.15</f>
+        <f t="shared" ref="H706:H726" si="34">G706*1.15</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="I706" s="3">
@@ -31383,7 +31490,7 @@
         <v>1</v>
       </c>
       <c r="G725" s="3">
-        <f t="shared" ref="G725:G726" si="38">E725/F725</f>
+        <f t="shared" ref="G725:G728" si="38">E725/F725</f>
         <v>45</v>
       </c>
       <c r="H725" s="3">
@@ -31391,7 +31498,7 @@
         <v>51.749999999999993</v>
       </c>
       <c r="I725" s="3">
-        <f t="shared" ref="I725:I726" si="39">D725-G725</f>
+        <f t="shared" ref="I725:I728" si="39">D725-G725</f>
         <v>7</v>
       </c>
       <c r="J725" s="4">
@@ -31439,23 +31546,233 @@
         <v>980</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K727" s="10"/>
-    </row>
-    <row r="728" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K728" s="10"/>
-    </row>
-    <row r="729" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K729" s="10"/>
-    </row>
-    <row r="730" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K730" s="10"/>
-    </row>
-    <row r="731" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K731" s="10"/>
-    </row>
-    <row r="732" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="K732" s="10"/>
+    <row r="727" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D727" s="3">
+        <v>15</v>
+      </c>
+      <c r="E727" s="3">
+        <v>319</v>
+      </c>
+      <c r="F727" s="3">
+        <v>24</v>
+      </c>
+      <c r="G727" s="3">
+        <f t="shared" si="38"/>
+        <v>13.291666666666666</v>
+      </c>
+      <c r="H727" s="3">
+        <f t="shared" ref="H727:H728" si="40">G727*1.15</f>
+        <v>15.285416666666665</v>
+      </c>
+      <c r="I727" s="3">
+        <f t="shared" si="39"/>
+        <v>1.7083333333333339</v>
+      </c>
+      <c r="J727" s="4">
+        <v>0</v>
+      </c>
+      <c r="K727" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D728" s="3">
+        <v>12</v>
+      </c>
+      <c r="E728" s="3">
+        <v>10</v>
+      </c>
+      <c r="F728" s="3">
+        <v>1</v>
+      </c>
+      <c r="G728" s="3">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="H728" s="3">
+        <f t="shared" si="40"/>
+        <v>11.5</v>
+      </c>
+      <c r="I728" s="3">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="J728" s="4">
+        <v>0</v>
+      </c>
+      <c r="K728" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D729" s="3">
+        <v>14</v>
+      </c>
+      <c r="E729" s="3">
+        <v>119</v>
+      </c>
+      <c r="F729" s="3">
+        <v>10</v>
+      </c>
+      <c r="G729" s="3">
+        <f t="shared" ref="G729" si="41">E729/F729</f>
+        <v>11.9</v>
+      </c>
+      <c r="H729" s="3">
+        <f t="shared" ref="H729" si="42">G729*1.15</f>
+        <v>13.684999999999999</v>
+      </c>
+      <c r="I729" s="3">
+        <f t="shared" ref="I729" si="43">D729-G729</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="J729" s="4">
+        <v>0</v>
+      </c>
+      <c r="K729" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D730" s="3">
+        <v>40</v>
+      </c>
+      <c r="E730" s="3">
+        <v>35</v>
+      </c>
+      <c r="F730" s="3">
+        <v>1</v>
+      </c>
+      <c r="G730" s="3">
+        <f t="shared" ref="G730:G732" si="44">E730/F730</f>
+        <v>35</v>
+      </c>
+      <c r="H730" s="3">
+        <f t="shared" ref="H730:H732" si="45">G730*1.15</f>
+        <v>40.25</v>
+      </c>
+      <c r="I730" s="3">
+        <f t="shared" ref="I730:I732" si="46">D730-G730</f>
+        <v>5</v>
+      </c>
+      <c r="J730" s="4">
+        <v>0</v>
+      </c>
+      <c r="K730" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D731" s="3">
+        <v>35</v>
+      </c>
+      <c r="E731" s="3">
+        <v>30</v>
+      </c>
+      <c r="F731" s="3">
+        <v>1</v>
+      </c>
+      <c r="G731" s="3">
+        <f t="shared" si="44"/>
+        <v>30</v>
+      </c>
+      <c r="H731" s="3">
+        <f t="shared" si="45"/>
+        <v>34.5</v>
+      </c>
+      <c r="I731" s="3">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="J731" s="4">
+        <v>0</v>
+      </c>
+      <c r="K731" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D732" s="3">
+        <v>26</v>
+      </c>
+      <c r="E732" s="3">
+        <v>135</v>
+      </c>
+      <c r="F732" s="3">
+        <v>6</v>
+      </c>
+      <c r="G732" s="3">
+        <f t="shared" si="44"/>
+        <v>22.5</v>
+      </c>
+      <c r="H732" s="3">
+        <f t="shared" si="45"/>
+        <v>25.874999999999996</v>
+      </c>
+      <c r="I732" s="3">
+        <f t="shared" si="46"/>
+        <v>3.5</v>
+      </c>
+      <c r="J732" s="4">
+        <v>0</v>
+      </c>
+      <c r="K732" s="5" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="733" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="K733" s="10"/>
@@ -32236,10 +32553,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33305,6 +33622,240 @@
       <c r="A103" t="s">
         <v>982</v>
       </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="33" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="42">
+        <v>45213</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42">
+        <v>45213</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="41">
+        <v>45220</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="C108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="41">
+        <v>45225</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="41">
+        <v>45226</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C110">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="39"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="37"/>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="33" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="26">
+        <v>45213</v>
+      </c>
+      <c r="B114" t="s">
+        <v>572</v>
+      </c>
+      <c r="C114">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="26">
+        <v>45213</v>
+      </c>
+      <c r="B115" t="s">
+        <v>592</v>
+      </c>
+      <c r="C115">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C116">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C117">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="38"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="39"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="37"/>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="38"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="39"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="37"/>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="38"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="37"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="38"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="38"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="38"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="38"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="38"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="39"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="38"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="40"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="38"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="38"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="39"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="38"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="38"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="39"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="37"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="38"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="39"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="37"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="38"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="38"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="38"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="39"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="38"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="39"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="37"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -33320,10 +33871,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F123"/>
+  <dimension ref="A2:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33943,99 +34494,87 @@
         <v>926</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="32" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="32" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="33" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="32" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="32" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="32" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="32"/>
       <c r="B106" s="32" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
         <v>946</v>
       </c>
-      <c r="F107" s="32" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="26">
         <v>45192</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>969</v>
       </c>
-      <c r="F108" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="26">
         <v>45190</v>
       </c>
       <c r="B109" s="32" t="s">
         <v>969</v>
       </c>
-      <c r="F109" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="26">
         <v>45185</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="F110" s="33" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="26">
         <v>45185</v>
       </c>
@@ -34043,43 +34582,29 @@
         <v>970</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="34">
         <v>45185</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="F113" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="34">
         <v>45197</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>965</v>
       </c>
-      <c r="F114" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="33" t="s">
         <v>973</v>
       </c>
-      <c r="F115" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F116" s="33" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="26">
         <v>45197</v>
       </c>
@@ -34087,7 +34612,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="26">
         <v>45193</v>
       </c>
@@ -34095,7 +34620,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="26">
         <v>45187</v>
       </c>
@@ -34103,12 +34628,12 @@
         <v>958</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="32" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="26">
         <v>45192</v>
       </c>
@@ -34116,7 +34641,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="26">
         <v>45192</v>
       </c>
@@ -34124,9 +34649,158 @@
         <v>963</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="32" t="s">
         <v>966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="32" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="33" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="33" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="33" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="26">
+        <v>45220</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="32" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="42">
+        <v>45213</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="26">
+        <v>45214</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="26">
+        <v>45215</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="26">
+        <v>45219</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="26">
+        <v>45221</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="26">
+        <v>45224</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="26">
+        <v>45225</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
